--- a/Source/Project Outputs for RUMBA_plus/RUMBA_plus_BOM.xlsx
+++ b/Source/Project Outputs for RUMBA_plus/RUMBA_plus_BOM.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="16828"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="16925"/>
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Chris\Documents\Git\RUMBA-Plus\Project Outputs for RUMBA_v2\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Chris\Documents\Git\RUMBA-Plus\Source\Project Outputs for RUMBA_plus\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -14,7 +14,7 @@
   <sheets>
     <sheet name="BOM" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="171027"/>
+  <calcPr calcId="171027" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="424" uniqueCount="263">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="425" uniqueCount="262">
   <si>
     <t>Designator</t>
   </si>
@@ -443,21 +443,6 @@
     <t>IC4</t>
   </si>
   <si>
-    <t>600mA, 500kHz Step-Down  Switching Regulator in  SOT-23</t>
-  </si>
-  <si>
-    <t>LT1933ES6</t>
-  </si>
-  <si>
-    <t>Linear Technology</t>
-  </si>
-  <si>
-    <t>LT1933ES6#TRPBF</t>
-  </si>
-  <si>
-    <t>LT1933ES6#TRPBFCT-ND</t>
-  </si>
-  <si>
     <t>IC5</t>
   </si>
   <si>
@@ -653,18 +638,6 @@
     <t>R5</t>
   </si>
   <si>
-    <t>Res-0603-30K</t>
-  </si>
-  <si>
-    <t>30K</t>
-  </si>
-  <si>
-    <t>RC0603FR-0730KL</t>
-  </si>
-  <si>
-    <t>311-30.0KHRCT-ND</t>
-  </si>
-  <si>
     <t>R7, R8</t>
   </si>
   <si>
@@ -813,6 +786,30 @@
   </si>
   <si>
     <t>Logic Level N MOSFET</t>
+  </si>
+  <si>
+    <t>Res-0603-53.6K</t>
+  </si>
+  <si>
+    <t>53.6K</t>
+  </si>
+  <si>
+    <t>RC0603FR-0753K6L</t>
+  </si>
+  <si>
+    <t>311-53.6KHRCT-ND</t>
+  </si>
+  <si>
+    <t>AOZ1282CI</t>
+  </si>
+  <si>
+    <t>Buck Switching Regulator IC Positive Adjustable 0.8V 1 Output 1.2A SOT-23-6</t>
+  </si>
+  <si>
+    <t>Alpha---Omega-Semiconductor-Inc.</t>
+  </si>
+  <si>
+    <t>785-1613-1-ND</t>
   </si>
 </sst>
 </file>
@@ -1215,8 +1212,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J48"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="K25" sqref="K25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1247,7 +1244,7 @@
         <v>3</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>254</v>
+        <v>245</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>4</v>
@@ -1279,7 +1276,7 @@
         <v>12</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>255</v>
+        <v>246</v>
       </c>
       <c r="F2" s="3">
         <v>6</v>
@@ -1311,7 +1308,7 @@
         <v>12</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>255</v>
+        <v>246</v>
       </c>
       <c r="F3" s="3">
         <v>10</v>
@@ -1343,7 +1340,7 @@
         <v>25</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>255</v>
+        <v>246</v>
       </c>
       <c r="F4" s="3">
         <v>1</v>
@@ -1375,7 +1372,7 @@
         <v>31</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>255</v>
+        <v>246</v>
       </c>
       <c r="F5" s="3">
         <v>1</v>
@@ -1407,7 +1404,7 @@
         <v>37</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>255</v>
+        <v>246</v>
       </c>
       <c r="F6" s="3">
         <v>10</v>
@@ -1439,7 +1436,7 @@
         <v>43</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>255</v>
+        <v>246</v>
       </c>
       <c r="F7" s="3">
         <v>5</v>
@@ -1471,7 +1468,7 @@
         <v>50</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>255</v>
+        <v>246</v>
       </c>
       <c r="F8" s="3">
         <v>6</v>
@@ -1503,7 +1500,7 @@
         <v>56</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>255</v>
+        <v>246</v>
       </c>
       <c r="F9" s="3">
         <v>8</v>
@@ -1535,7 +1532,7 @@
         <v>12</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>255</v>
+        <v>246</v>
       </c>
       <c r="F10" s="3">
         <v>3</v>
@@ -1567,7 +1564,7 @@
         <v>12</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>255</v>
+        <v>246</v>
       </c>
       <c r="F11" s="3">
         <v>3</v>
@@ -1599,7 +1596,7 @@
         <v>72</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>255</v>
+        <v>246</v>
       </c>
       <c r="F12" s="3">
         <v>1</v>
@@ -1631,7 +1628,7 @@
         <v>78</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>255</v>
+        <v>246</v>
       </c>
       <c r="F13" s="3">
         <v>1</v>
@@ -1663,7 +1660,7 @@
         <v>85</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>255</v>
+        <v>246</v>
       </c>
       <c r="F14" s="3">
         <v>6</v>
@@ -1683,19 +1680,19 @@
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
-        <v>257</v>
+        <v>248</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>256</v>
+        <v>247</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>256</v>
+        <v>247</v>
       </c>
       <c r="D15" s="2" t="s">
         <v>12</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>255</v>
+        <v>246</v>
       </c>
       <c r="F15" s="3">
         <v>12</v>
@@ -1724,10 +1721,10 @@
         <v>94</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>259</v>
+        <v>250</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>255</v>
+        <v>246</v>
       </c>
       <c r="F16" s="3">
         <v>6</v>
@@ -1756,7 +1753,7 @@
         <v>99</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>255</v>
+        <v>246</v>
       </c>
       <c r="F17" s="3">
         <v>11</v>
@@ -1788,7 +1785,7 @@
         <v>12</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>255</v>
+        <v>246</v>
       </c>
       <c r="F18" s="3">
         <v>6</v>
@@ -1820,7 +1817,7 @@
         <v>12</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>255</v>
+        <v>246</v>
       </c>
       <c r="F19" s="3">
         <v>2</v>
@@ -1852,7 +1849,7 @@
         <v>12</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>255</v>
+        <v>246</v>
       </c>
       <c r="F20" s="3">
         <v>1</v>
@@ -1875,7 +1872,7 @@
         <v>117</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>260</v>
+        <v>251</v>
       </c>
       <c r="C21" s="2" t="s">
         <v>118</v>
@@ -1884,7 +1881,7 @@
         <v>12</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>255</v>
+        <v>246</v>
       </c>
       <c r="F21" s="3">
         <v>2</v>
@@ -1913,10 +1910,10 @@
         <v>123</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>259</v>
+        <v>250</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>255</v>
+        <v>246</v>
       </c>
       <c r="F22" s="3">
         <v>5</v>
@@ -1945,10 +1942,10 @@
         <v>126</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>259</v>
+        <v>250</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>255</v>
+        <v>246</v>
       </c>
       <c r="F23" s="3">
         <v>3</v>
@@ -2031,10 +2028,10 @@
         <v>138</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>139</v>
+        <v>259</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>140</v>
+        <v>258</v>
       </c>
       <c r="D26" s="2" t="s">
         <v>12</v>
@@ -2044,27 +2041,27 @@
         <v>1</v>
       </c>
       <c r="G26" s="4" t="s">
-        <v>141</v>
+        <v>260</v>
       </c>
       <c r="H26" s="6" t="s">
-        <v>142</v>
+        <v>258</v>
       </c>
       <c r="I26" s="2" t="s">
         <v>15</v>
       </c>
       <c r="J26" s="5" t="s">
-        <v>143</v>
+        <v>261</v>
       </c>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A27" s="2" t="s">
-        <v>144</v>
+        <v>139</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>145</v>
+        <v>140</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>146</v>
+        <v>141</v>
       </c>
       <c r="D27" s="2" t="s">
         <v>12</v>
@@ -2074,33 +2071,33 @@
         <v>1</v>
       </c>
       <c r="G27" s="4" t="s">
-        <v>147</v>
+        <v>142</v>
       </c>
       <c r="H27" s="6" t="s">
-        <v>148</v>
+        <v>143</v>
       </c>
       <c r="I27" s="2" t="s">
         <v>15</v>
       </c>
       <c r="J27" s="5" t="s">
-        <v>149</v>
+        <v>144</v>
       </c>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A28" s="2" t="s">
-        <v>150</v>
+        <v>145</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>152</v>
+        <v>147</v>
       </c>
       <c r="D28" s="2" t="s">
         <v>12</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>255</v>
+        <v>246</v>
       </c>
       <c r="F28" s="3">
         <v>2</v>
@@ -2109,50 +2106,50 @@
         <v>13</v>
       </c>
       <c r="H28" s="6" t="s">
-        <v>153</v>
+        <v>148</v>
       </c>
       <c r="I28" s="2" t="s">
         <v>15</v>
       </c>
       <c r="J28" s="5" t="s">
-        <v>154</v>
+        <v>149</v>
       </c>
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A29" s="2" t="s">
-        <v>155</v>
+        <v>150</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>261</v>
+        <v>252</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>258</v>
+        <v>249</v>
       </c>
       <c r="D29" s="2" t="s">
         <v>12</v>
       </c>
       <c r="E29" s="2" t="s">
-        <v>255</v>
+        <v>246</v>
       </c>
       <c r="F29" s="3">
         <v>1</v>
       </c>
       <c r="G29" s="4" t="s">
-        <v>156</v>
+        <v>151</v>
       </c>
       <c r="H29" s="5" t="s">
-        <v>157</v>
+        <v>152</v>
       </c>
       <c r="I29" s="2" t="s">
         <v>15</v>
       </c>
       <c r="J29" s="5" t="s">
-        <v>158</v>
+        <v>153</v>
       </c>
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A30" s="2" t="s">
-        <v>159</v>
+        <v>154</v>
       </c>
       <c r="B30" s="2" t="s">
         <v>108</v>
@@ -2164,7 +2161,7 @@
         <v>12</v>
       </c>
       <c r="E30" s="2" t="s">
-        <v>255</v>
+        <v>246</v>
       </c>
       <c r="F30" s="3">
         <v>2</v>
@@ -2184,61 +2181,61 @@
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A31" s="2" t="s">
-        <v>160</v>
+        <v>155</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>161</v>
+        <v>156</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>162</v>
+        <v>157</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>163</v>
+        <v>158</v>
       </c>
       <c r="E31" s="2" t="s">
-        <v>255</v>
+        <v>246</v>
       </c>
       <c r="F31" s="3">
         <v>1</v>
       </c>
       <c r="G31" s="4" t="s">
-        <v>164</v>
+        <v>159</v>
       </c>
       <c r="H31" s="6" t="s">
-        <v>165</v>
+        <v>160</v>
       </c>
       <c r="I31" s="2" t="s">
         <v>15</v>
       </c>
       <c r="J31" s="5" t="s">
-        <v>166</v>
+        <v>161</v>
       </c>
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A32" s="2" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>161</v>
+        <v>156</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>168</v>
+        <v>163</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>169</v>
+        <v>164</v>
       </c>
       <c r="E32" s="2"/>
       <c r="F32" s="3">
         <v>1</v>
       </c>
       <c r="G32" s="4" t="s">
-        <v>170</v>
+        <v>165</v>
       </c>
       <c r="H32" s="6" t="s">
-        <v>171</v>
+        <v>166</v>
       </c>
       <c r="I32" s="2" t="s">
-        <v>172</v>
+        <v>167</v>
       </c>
       <c r="J32" s="5">
         <v>2288635</v>
@@ -2246,29 +2243,29 @@
     </row>
     <row r="33" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A33" s="2" t="s">
-        <v>173</v>
+        <v>168</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>161</v>
+        <v>156</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>174</v>
+        <v>169</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>175</v>
+        <v>170</v>
       </c>
       <c r="E33" s="2"/>
       <c r="F33" s="3">
         <v>1</v>
       </c>
       <c r="G33" s="4" t="s">
-        <v>170</v>
+        <v>165</v>
       </c>
       <c r="H33" s="6" t="s">
-        <v>176</v>
+        <v>171</v>
       </c>
       <c r="I33" s="2" t="s">
-        <v>172</v>
+        <v>167</v>
       </c>
       <c r="J33" s="5">
         <v>2287252</v>
@@ -2276,77 +2273,77 @@
     </row>
     <row r="34" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A34" s="2" t="s">
-        <v>177</v>
+        <v>172</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>178</v>
+        <v>173</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>179</v>
+        <v>174</v>
       </c>
       <c r="D34" s="2" t="s">
         <v>12</v>
       </c>
       <c r="E34" s="2" t="s">
-        <v>255</v>
+        <v>246</v>
       </c>
       <c r="F34" s="3">
         <v>7</v>
       </c>
       <c r="G34" s="4" t="s">
-        <v>180</v>
+        <v>175</v>
       </c>
       <c r="H34" s="6" t="s">
-        <v>181</v>
+        <v>176</v>
       </c>
       <c r="I34" s="2" t="s">
         <v>15</v>
       </c>
       <c r="J34" s="5" t="s">
-        <v>182</v>
+        <v>177</v>
       </c>
     </row>
     <row r="35" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A35" s="2" t="s">
-        <v>183</v>
+        <v>178</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>178</v>
+        <v>173</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>184</v>
+        <v>179</v>
       </c>
       <c r="D35" s="2" t="s">
         <v>12</v>
       </c>
       <c r="E35" s="2" t="s">
-        <v>255</v>
+        <v>246</v>
       </c>
       <c r="F35" s="3">
         <v>3</v>
       </c>
       <c r="G35" s="4" t="s">
+        <v>175</v>
+      </c>
+      <c r="H35" s="6" t="s">
         <v>180</v>
       </c>
-      <c r="H35" s="6" t="s">
-        <v>185</v>
-      </c>
       <c r="I35" s="2" t="s">
         <v>15</v>
       </c>
       <c r="J35" s="5" t="s">
-        <v>186</v>
+        <v>181</v>
       </c>
     </row>
     <row r="36" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A36" s="2" t="s">
-        <v>187</v>
+        <v>182</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>262</v>
+        <v>253</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>188</v>
+        <v>183</v>
       </c>
       <c r="D36" s="2" t="s">
         <v>12</v>
@@ -2356,33 +2353,33 @@
         <v>6</v>
       </c>
       <c r="G36" s="4" t="s">
-        <v>189</v>
+        <v>184</v>
       </c>
       <c r="H36" s="5" t="s">
-        <v>190</v>
+        <v>185</v>
       </c>
       <c r="I36" s="2" t="s">
         <v>15</v>
       </c>
       <c r="J36" s="5" t="s">
-        <v>191</v>
+        <v>186</v>
       </c>
     </row>
     <row r="37" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A37" s="2" t="s">
-        <v>192</v>
+        <v>187</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>193</v>
+        <v>188</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>194</v>
+        <v>189</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>195</v>
+        <v>190</v>
       </c>
       <c r="E37" s="2" t="s">
-        <v>255</v>
+        <v>246</v>
       </c>
       <c r="F37" s="3">
         <v>2</v>
@@ -2391,30 +2388,30 @@
         <v>38</v>
       </c>
       <c r="H37" s="6" t="s">
-        <v>196</v>
+        <v>191</v>
       </c>
       <c r="I37" s="2" t="s">
         <v>15</v>
       </c>
       <c r="J37" s="5" t="s">
-        <v>197</v>
+        <v>192</v>
       </c>
     </row>
     <row r="38" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A38" s="2" t="s">
-        <v>198</v>
+        <v>193</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>193</v>
+        <v>188</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>199</v>
+        <v>194</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>200</v>
+        <v>195</v>
       </c>
       <c r="E38" s="2" t="s">
-        <v>255</v>
+        <v>246</v>
       </c>
       <c r="F38" s="3">
         <v>11</v>
@@ -2423,30 +2420,30 @@
         <v>38</v>
       </c>
       <c r="H38" s="6" t="s">
-        <v>201</v>
+        <v>196</v>
       </c>
       <c r="I38" s="2" t="s">
         <v>15</v>
       </c>
       <c r="J38" s="5" t="s">
-        <v>202</v>
+        <v>197</v>
       </c>
     </row>
     <row r="39" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A39" s="2" t="s">
-        <v>203</v>
+        <v>198</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>193</v>
+        <v>188</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>204</v>
+        <v>199</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>205</v>
+        <v>200</v>
       </c>
       <c r="E39" s="2" t="s">
-        <v>255</v>
+        <v>246</v>
       </c>
       <c r="F39" s="3">
         <v>14</v>
@@ -2455,30 +2452,30 @@
         <v>38</v>
       </c>
       <c r="H39" s="6" t="s">
-        <v>206</v>
+        <v>201</v>
       </c>
       <c r="I39" s="2" t="s">
         <v>15</v>
       </c>
       <c r="J39" s="5" t="s">
-        <v>207</v>
+        <v>202</v>
       </c>
     </row>
     <row r="40" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A40" s="2" t="s">
-        <v>208</v>
+        <v>203</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>193</v>
+        <v>188</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>209</v>
+        <v>254</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>210</v>
+        <v>255</v>
       </c>
       <c r="E40" s="2" t="s">
-        <v>255</v>
+        <v>246</v>
       </c>
       <c r="F40" s="3">
         <v>1</v>
@@ -2487,30 +2484,30 @@
         <v>38</v>
       </c>
       <c r="H40" s="6" t="s">
-        <v>211</v>
+        <v>256</v>
       </c>
       <c r="I40" s="2" t="s">
         <v>15</v>
       </c>
       <c r="J40" s="5" t="s">
-        <v>212</v>
+        <v>257</v>
       </c>
     </row>
     <row r="41" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A41" s="2" t="s">
-        <v>213</v>
+        <v>204</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>193</v>
+        <v>188</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>214</v>
+        <v>205</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>215</v>
+        <v>206</v>
       </c>
       <c r="E41" s="2" t="s">
-        <v>255</v>
+        <v>246</v>
       </c>
       <c r="F41" s="3">
         <v>2</v>
@@ -2519,30 +2516,30 @@
         <v>38</v>
       </c>
       <c r="H41" s="6" t="s">
-        <v>216</v>
+        <v>207</v>
       </c>
       <c r="I41" s="2" t="s">
         <v>15</v>
       </c>
       <c r="J41" s="5" t="s">
-        <v>217</v>
+        <v>208</v>
       </c>
     </row>
     <row r="42" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A42" s="2" t="s">
-        <v>218</v>
+        <v>209</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>193</v>
+        <v>188</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>219</v>
+        <v>210</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>220</v>
+        <v>211</v>
       </c>
       <c r="E42" s="2" t="s">
-        <v>255</v>
+        <v>246</v>
       </c>
       <c r="F42" s="3">
         <v>12</v>
@@ -2551,30 +2548,30 @@
         <v>38</v>
       </c>
       <c r="H42" s="6" t="s">
-        <v>221</v>
+        <v>212</v>
       </c>
       <c r="I42" s="2" t="s">
         <v>15</v>
       </c>
       <c r="J42" s="5" t="s">
-        <v>222</v>
+        <v>213</v>
       </c>
     </row>
     <row r="43" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A43" s="2" t="s">
-        <v>223</v>
+        <v>214</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>193</v>
+        <v>188</v>
       </c>
       <c r="C43" s="2" t="s">
-        <v>224</v>
+        <v>215</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>225</v>
+        <v>216</v>
       </c>
       <c r="E43" s="2" t="s">
-        <v>255</v>
+        <v>246</v>
       </c>
       <c r="F43" s="3">
         <v>6</v>
@@ -2583,30 +2580,30 @@
         <v>38</v>
       </c>
       <c r="H43" s="6" t="s">
-        <v>226</v>
+        <v>217</v>
       </c>
       <c r="I43" s="2" t="s">
         <v>15</v>
       </c>
       <c r="J43" s="5" t="s">
-        <v>227</v>
+        <v>218</v>
       </c>
     </row>
     <row r="44" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A44" s="2" t="s">
-        <v>228</v>
+        <v>219</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>193</v>
+        <v>188</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>229</v>
+        <v>220</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>230</v>
+        <v>221</v>
       </c>
       <c r="E44" s="2" t="s">
-        <v>255</v>
+        <v>246</v>
       </c>
       <c r="F44" s="3">
         <v>5</v>
@@ -2615,30 +2612,30 @@
         <v>38</v>
       </c>
       <c r="H44" s="6" t="s">
-        <v>231</v>
+        <v>222</v>
       </c>
       <c r="I44" s="2" t="s">
         <v>15</v>
       </c>
       <c r="J44" s="5" t="s">
-        <v>232</v>
+        <v>223</v>
       </c>
     </row>
     <row r="45" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A45" s="2" t="s">
-        <v>233</v>
+        <v>224</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>193</v>
+        <v>188</v>
       </c>
       <c r="C45" s="2" t="s">
-        <v>234</v>
+        <v>225</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>235</v>
+        <v>226</v>
       </c>
       <c r="E45" s="2" t="s">
-        <v>255</v>
+        <v>246</v>
       </c>
       <c r="F45" s="3">
         <v>1</v>
@@ -2647,94 +2644,94 @@
         <v>38</v>
       </c>
       <c r="H45" s="6" t="s">
-        <v>236</v>
+        <v>227</v>
       </c>
       <c r="I45" s="2" t="s">
         <v>15</v>
       </c>
       <c r="J45" s="5" t="s">
-        <v>237</v>
+        <v>228</v>
       </c>
     </row>
     <row r="46" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A46" s="2" t="s">
-        <v>238</v>
+        <v>229</v>
       </c>
       <c r="B46" s="2" t="s">
         <v>12</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>239</v>
+        <v>230</v>
       </c>
       <c r="D46" s="2" t="s">
         <v>12</v>
       </c>
       <c r="E46" s="2" t="s">
-        <v>255</v>
+        <v>246</v>
       </c>
       <c r="F46" s="3">
         <v>1</v>
       </c>
       <c r="G46" s="4" t="s">
-        <v>240</v>
+        <v>231</v>
       </c>
       <c r="H46" s="5" t="s">
-        <v>241</v>
+        <v>232</v>
       </c>
       <c r="I46" s="2" t="s">
         <v>15</v>
       </c>
       <c r="J46" s="5" t="s">
-        <v>242</v>
+        <v>233</v>
       </c>
     </row>
     <row r="47" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A47" s="2" t="s">
-        <v>243</v>
+        <v>234</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>244</v>
+        <v>235</v>
       </c>
       <c r="C47" s="2" t="s">
-        <v>245</v>
+        <v>236</v>
       </c>
       <c r="D47" s="2" t="s">
         <v>12</v>
       </c>
       <c r="E47" s="2" t="s">
-        <v>255</v>
+        <v>246</v>
       </c>
       <c r="F47" s="3">
         <v>2</v>
       </c>
       <c r="G47" s="4" t="s">
-        <v>246</v>
+        <v>237</v>
       </c>
       <c r="H47" s="6" t="s">
-        <v>247</v>
+        <v>238</v>
       </c>
       <c r="I47" s="2" t="s">
         <v>15</v>
       </c>
       <c r="J47" s="5" t="s">
-        <v>248</v>
+        <v>239</v>
       </c>
     </row>
     <row r="48" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A48" s="2" t="s">
-        <v>249</v>
+        <v>240</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>250</v>
+        <v>241</v>
       </c>
       <c r="C48" s="2" t="s">
-        <v>251</v>
+        <v>242</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>252</v>
+        <v>243</v>
       </c>
       <c r="E48" s="2" t="s">
-        <v>255</v>
+        <v>246</v>
       </c>
       <c r="F48" s="3">
         <v>2</v>
@@ -2743,13 +2740,13 @@
         <v>67</v>
       </c>
       <c r="H48" s="6" t="s">
-        <v>252</v>
+        <v>243</v>
       </c>
       <c r="I48" s="2" t="s">
         <v>15</v>
       </c>
       <c r="J48" s="5" t="s">
-        <v>253</v>
+        <v>244</v>
       </c>
     </row>
   </sheetData>
@@ -2826,77 +2823,72 @@
     <hyperlink ref="G25" r:id="rId70" tooltip="Component"/>
     <hyperlink ref="H25" r:id="rId71" tooltip="Manufacturer"/>
     <hyperlink ref="J25" r:id="rId72" tooltip="Supplier"/>
-    <hyperlink ref="G26" r:id="rId73" tooltip="Component"/>
-    <hyperlink ref="H26" r:id="rId74" tooltip="Manufacturer"/>
-    <hyperlink ref="J26" r:id="rId75" tooltip="Supplier"/>
-    <hyperlink ref="G27" r:id="rId76" tooltip="Component"/>
-    <hyperlink ref="H27" r:id="rId77" tooltip="Manufacturer"/>
-    <hyperlink ref="J27" r:id="rId78" tooltip="Supplier"/>
-    <hyperlink ref="G28" r:id="rId79" tooltip="Component"/>
-    <hyperlink ref="H28" r:id="rId80" tooltip="Manufacturer"/>
-    <hyperlink ref="J28" r:id="rId81" tooltip="Supplier"/>
-    <hyperlink ref="G29" r:id="rId82" tooltip="Component"/>
-    <hyperlink ref="H29" r:id="rId83" tooltip="Manufacturer"/>
-    <hyperlink ref="J29" r:id="rId84" tooltip="Supplier"/>
-    <hyperlink ref="G30" r:id="rId85" tooltip="Component"/>
-    <hyperlink ref="H30" r:id="rId86" tooltip="Manufacturer"/>
-    <hyperlink ref="J30" r:id="rId87" tooltip="Supplier"/>
-    <hyperlink ref="G31" r:id="rId88" tooltip="Component"/>
-    <hyperlink ref="H31" r:id="rId89" tooltip="Manufacturer"/>
-    <hyperlink ref="J31" r:id="rId90" tooltip="Supplier"/>
-    <hyperlink ref="G32" r:id="rId91" tooltip="Component"/>
-    <hyperlink ref="H32" r:id="rId92" tooltip="Manufacturer"/>
-    <hyperlink ref="J32" r:id="rId93" tooltip="Supplier" display="2288635"/>
-    <hyperlink ref="G33" r:id="rId94" tooltip="Component"/>
-    <hyperlink ref="H33" r:id="rId95" tooltip="Manufacturer"/>
-    <hyperlink ref="J33" r:id="rId96" tooltip="Supplier" display="2287252"/>
-    <hyperlink ref="G34" r:id="rId97" tooltip="Component"/>
-    <hyperlink ref="H34" r:id="rId98" tooltip="Manufacturer"/>
-    <hyperlink ref="J34" r:id="rId99" tooltip="Supplier"/>
-    <hyperlink ref="G35" r:id="rId100" tooltip="Component"/>
-    <hyperlink ref="H35" r:id="rId101" tooltip="Manufacturer"/>
-    <hyperlink ref="J35" r:id="rId102" tooltip="Supplier"/>
-    <hyperlink ref="G36" r:id="rId103" tooltip="Component"/>
-    <hyperlink ref="H36" r:id="rId104" tooltip="Manufacturer"/>
-    <hyperlink ref="J36" r:id="rId105" tooltip="Supplier"/>
-    <hyperlink ref="G37" r:id="rId106" tooltip="Component"/>
-    <hyperlink ref="H37" r:id="rId107" tooltip="Manufacturer"/>
-    <hyperlink ref="J37" r:id="rId108" tooltip="Supplier"/>
-    <hyperlink ref="G38" r:id="rId109" tooltip="Component"/>
-    <hyperlink ref="H38" r:id="rId110" tooltip="Manufacturer"/>
-    <hyperlink ref="J38" r:id="rId111" tooltip="Supplier"/>
-    <hyperlink ref="G39" r:id="rId112" tooltip="Component"/>
-    <hyperlink ref="H39" r:id="rId113" tooltip="Manufacturer"/>
-    <hyperlink ref="J39" r:id="rId114" tooltip="Supplier"/>
-    <hyperlink ref="G40" r:id="rId115" tooltip="Component"/>
-    <hyperlink ref="H40" r:id="rId116" tooltip="Manufacturer"/>
-    <hyperlink ref="J40" r:id="rId117" tooltip="Supplier"/>
-    <hyperlink ref="G41" r:id="rId118" tooltip="Component"/>
-    <hyperlink ref="H41" r:id="rId119" tooltip="Manufacturer"/>
-    <hyperlink ref="J41" r:id="rId120" tooltip="Supplier"/>
-    <hyperlink ref="G42" r:id="rId121" tooltip="Component"/>
-    <hyperlink ref="H42" r:id="rId122" tooltip="Manufacturer"/>
-    <hyperlink ref="J42" r:id="rId123" tooltip="Supplier"/>
-    <hyperlink ref="G43" r:id="rId124" tooltip="Component"/>
-    <hyperlink ref="H43" r:id="rId125" tooltip="Manufacturer"/>
-    <hyperlink ref="J43" r:id="rId126" tooltip="Supplier"/>
-    <hyperlink ref="G44" r:id="rId127" tooltip="Component"/>
-    <hyperlink ref="H44" r:id="rId128" tooltip="Manufacturer"/>
-    <hyperlink ref="J44" r:id="rId129" tooltip="Supplier"/>
-    <hyperlink ref="G45" r:id="rId130" tooltip="Component"/>
-    <hyperlink ref="H45" r:id="rId131" tooltip="Manufacturer"/>
-    <hyperlink ref="J45" r:id="rId132" tooltip="Supplier"/>
-    <hyperlink ref="G46" r:id="rId133" tooltip="Component"/>
-    <hyperlink ref="H46" r:id="rId134" tooltip="Manufacturer"/>
-    <hyperlink ref="J46" r:id="rId135" tooltip="Supplier"/>
-    <hyperlink ref="G47" r:id="rId136" tooltip="Component"/>
-    <hyperlink ref="H47" r:id="rId137" tooltip="Manufacturer"/>
-    <hyperlink ref="J47" r:id="rId138" tooltip="Supplier"/>
-    <hyperlink ref="G48" r:id="rId139" tooltip="Component"/>
-    <hyperlink ref="H48" r:id="rId140" tooltip="Manufacturer"/>
-    <hyperlink ref="J48" r:id="rId141" tooltip="Supplier"/>
+    <hyperlink ref="G27" r:id="rId73" tooltip="Component"/>
+    <hyperlink ref="H27" r:id="rId74" tooltip="Manufacturer"/>
+    <hyperlink ref="J27" r:id="rId75" tooltip="Supplier"/>
+    <hyperlink ref="G28" r:id="rId76" tooltip="Component"/>
+    <hyperlink ref="H28" r:id="rId77" tooltip="Manufacturer"/>
+    <hyperlink ref="J28" r:id="rId78" tooltip="Supplier"/>
+    <hyperlink ref="G29" r:id="rId79" tooltip="Component"/>
+    <hyperlink ref="H29" r:id="rId80" tooltip="Manufacturer"/>
+    <hyperlink ref="J29" r:id="rId81" tooltip="Supplier"/>
+    <hyperlink ref="G30" r:id="rId82" tooltip="Component"/>
+    <hyperlink ref="H30" r:id="rId83" tooltip="Manufacturer"/>
+    <hyperlink ref="J30" r:id="rId84" tooltip="Supplier"/>
+    <hyperlink ref="G31" r:id="rId85" tooltip="Component"/>
+    <hyperlink ref="H31" r:id="rId86" tooltip="Manufacturer"/>
+    <hyperlink ref="J31" r:id="rId87" tooltip="Supplier"/>
+    <hyperlink ref="G32" r:id="rId88" tooltip="Component"/>
+    <hyperlink ref="H32" r:id="rId89" tooltip="Manufacturer"/>
+    <hyperlink ref="J32" r:id="rId90" tooltip="Supplier" display="2288635"/>
+    <hyperlink ref="G33" r:id="rId91" tooltip="Component"/>
+    <hyperlink ref="H33" r:id="rId92" tooltip="Manufacturer"/>
+    <hyperlink ref="J33" r:id="rId93" tooltip="Supplier" display="2287252"/>
+    <hyperlink ref="G34" r:id="rId94" tooltip="Component"/>
+    <hyperlink ref="H34" r:id="rId95" tooltip="Manufacturer"/>
+    <hyperlink ref="J34" r:id="rId96" tooltip="Supplier"/>
+    <hyperlink ref="G35" r:id="rId97" tooltip="Component"/>
+    <hyperlink ref="H35" r:id="rId98" tooltip="Manufacturer"/>
+    <hyperlink ref="J35" r:id="rId99" tooltip="Supplier"/>
+    <hyperlink ref="G36" r:id="rId100" tooltip="Component"/>
+    <hyperlink ref="H36" r:id="rId101" tooltip="Manufacturer"/>
+    <hyperlink ref="J36" r:id="rId102" tooltip="Supplier"/>
+    <hyperlink ref="G37" r:id="rId103" tooltip="Component"/>
+    <hyperlink ref="H37" r:id="rId104" tooltip="Manufacturer"/>
+    <hyperlink ref="J37" r:id="rId105" tooltip="Supplier"/>
+    <hyperlink ref="G38" r:id="rId106" tooltip="Component"/>
+    <hyperlink ref="H38" r:id="rId107" tooltip="Manufacturer"/>
+    <hyperlink ref="J38" r:id="rId108" tooltip="Supplier"/>
+    <hyperlink ref="G39" r:id="rId109" tooltip="Component"/>
+    <hyperlink ref="H39" r:id="rId110" tooltip="Manufacturer"/>
+    <hyperlink ref="J39" r:id="rId111" tooltip="Supplier"/>
+    <hyperlink ref="G40" r:id="rId112" tooltip="Component"/>
+    <hyperlink ref="G41" r:id="rId113" tooltip="Component"/>
+    <hyperlink ref="H41" r:id="rId114" tooltip="Manufacturer"/>
+    <hyperlink ref="J41" r:id="rId115" tooltip="Supplier"/>
+    <hyperlink ref="G42" r:id="rId116" tooltip="Component"/>
+    <hyperlink ref="H42" r:id="rId117" tooltip="Manufacturer"/>
+    <hyperlink ref="J42" r:id="rId118" tooltip="Supplier"/>
+    <hyperlink ref="G43" r:id="rId119" tooltip="Component"/>
+    <hyperlink ref="H43" r:id="rId120" tooltip="Manufacturer"/>
+    <hyperlink ref="J43" r:id="rId121" tooltip="Supplier"/>
+    <hyperlink ref="G44" r:id="rId122" tooltip="Component"/>
+    <hyperlink ref="H44" r:id="rId123" tooltip="Manufacturer"/>
+    <hyperlink ref="J44" r:id="rId124" tooltip="Supplier"/>
+    <hyperlink ref="G45" r:id="rId125" tooltip="Component"/>
+    <hyperlink ref="H45" r:id="rId126" tooltip="Manufacturer"/>
+    <hyperlink ref="J45" r:id="rId127" tooltip="Supplier"/>
+    <hyperlink ref="G46" r:id="rId128" tooltip="Component"/>
+    <hyperlink ref="H46" r:id="rId129" tooltip="Manufacturer"/>
+    <hyperlink ref="J46" r:id="rId130" tooltip="Supplier"/>
+    <hyperlink ref="G47" r:id="rId131" tooltip="Component"/>
+    <hyperlink ref="H47" r:id="rId132" tooltip="Manufacturer"/>
+    <hyperlink ref="J47" r:id="rId133" tooltip="Supplier"/>
+    <hyperlink ref="G48" r:id="rId134" tooltip="Component"/>
+    <hyperlink ref="H48" r:id="rId135" tooltip="Manufacturer"/>
+    <hyperlink ref="J48" r:id="rId136" tooltip="Supplier"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId142"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId137"/>
 </worksheet>
 </file>
--- a/Source/Project Outputs for RUMBA_plus/RUMBA_plus_BOM.xlsx
+++ b/Source/Project Outputs for RUMBA_plus/RUMBA_plus_BOM.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="16925"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
@@ -14,7 +14,7 @@
   <sheets>
     <sheet name="BOM" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="171027" concurrentCalc="0"/>
+  <calcPr calcId="162913" refMode="R1C1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="425" uniqueCount="262">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="439" uniqueCount="263">
   <si>
     <t>Designator</t>
   </si>
@@ -257,21 +257,6 @@
     <t>D8</t>
   </si>
   <si>
-    <t>Diode MURS320</t>
-  </si>
-  <si>
-    <t>MURS320</t>
-  </si>
-  <si>
-    <t>Diodes Incorporated</t>
-  </si>
-  <si>
-    <t>MURS320-13-F</t>
-  </si>
-  <si>
-    <t>MURS320-13FDICT-ND</t>
-  </si>
-  <si>
     <t>D9, D10, D11, D12, D13, D14</t>
   </si>
   <si>
@@ -494,9 +479,6 @@
     <t>L1</t>
   </si>
   <si>
-    <t>MagneticCore Inductor with Winding Polarity Marking</t>
-  </si>
-  <si>
     <t>Ferrite Bead SMD 0805</t>
   </si>
   <si>
@@ -515,33 +497,15 @@
     <t>L3</t>
   </si>
   <si>
-    <t>Inductor SMD 33uH 1.2A</t>
-  </si>
-  <si>
     <t>33uH</t>
   </si>
   <si>
-    <t>COILCRAFT</t>
-  </si>
-  <si>
-    <t>MSS6122-123MLB</t>
-  </si>
-  <si>
-    <t>Farnell</t>
-  </si>
-  <si>
     <t>L4</t>
   </si>
   <si>
-    <t>Inductor SMD 47uH 1.8A</t>
-  </si>
-  <si>
     <t>47uH</t>
   </si>
   <si>
-    <t>DO3316P-473MLD</t>
-  </si>
-  <si>
     <t>LD2, LD3, LD4, LD5, LD6, LD7, Power</t>
   </si>
   <si>
@@ -810,6 +774,45 @@
   </si>
   <si>
     <t>785-1613-1-ND</t>
+  </si>
+  <si>
+    <t>1655-1602-1-ND</t>
+  </si>
+  <si>
+    <t>SK520BTR</t>
+  </si>
+  <si>
+    <t>SMC Diode Solutions</t>
+  </si>
+  <si>
+    <t>200V 5A Schottky</t>
+  </si>
+  <si>
+    <t>Diode SK520BTR</t>
+  </si>
+  <si>
+    <t>SRN6045TA-330MCT-ND</t>
+  </si>
+  <si>
+    <t>SRN6045TA-330M</t>
+  </si>
+  <si>
+    <t>Inductor SMD 33uH 1.8A</t>
+  </si>
+  <si>
+    <t>SRN8040TA-470MCT-ND</t>
+  </si>
+  <si>
+    <t>SRN8040TA-470M</t>
+  </si>
+  <si>
+    <t>Inductor SMD 47uH 2.0A</t>
+  </si>
+  <si>
+    <t>Wirewound Inductor</t>
+  </si>
+  <si>
+    <t>Ferrite Bead Inductor</t>
   </si>
 </sst>
 </file>
@@ -989,23 +992,6 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -1041,23 +1027,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1213,7 +1182,7 @@
   <dimension ref="A1:J48"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="K25" sqref="K25"/>
+      <selection activeCell="D26" sqref="D26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1244,7 +1213,7 @@
         <v>3</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>245</v>
+        <v>233</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>4</v>
@@ -1276,7 +1245,7 @@
         <v>12</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>246</v>
+        <v>234</v>
       </c>
       <c r="F2" s="3">
         <v>6</v>
@@ -1308,7 +1277,7 @@
         <v>12</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>246</v>
+        <v>234</v>
       </c>
       <c r="F3" s="3">
         <v>10</v>
@@ -1340,7 +1309,7 @@
         <v>25</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>246</v>
+        <v>234</v>
       </c>
       <c r="F4" s="3">
         <v>1</v>
@@ -1372,7 +1341,7 @@
         <v>31</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>246</v>
+        <v>234</v>
       </c>
       <c r="F5" s="3">
         <v>1</v>
@@ -1404,7 +1373,7 @@
         <v>37</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>246</v>
+        <v>234</v>
       </c>
       <c r="F6" s="3">
         <v>10</v>
@@ -1436,7 +1405,7 @@
         <v>43</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>246</v>
+        <v>234</v>
       </c>
       <c r="F7" s="3">
         <v>5</v>
@@ -1468,7 +1437,7 @@
         <v>50</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>246</v>
+        <v>234</v>
       </c>
       <c r="F8" s="3">
         <v>6</v>
@@ -1500,7 +1469,7 @@
         <v>56</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>246</v>
+        <v>234</v>
       </c>
       <c r="F9" s="3">
         <v>8</v>
@@ -1532,7 +1501,7 @@
         <v>12</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>246</v>
+        <v>234</v>
       </c>
       <c r="F10" s="3">
         <v>3</v>
@@ -1564,7 +1533,7 @@
         <v>12</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>246</v>
+        <v>234</v>
       </c>
       <c r="F11" s="3">
         <v>3</v>
@@ -1596,7 +1565,7 @@
         <v>72</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>246</v>
+        <v>234</v>
       </c>
       <c r="F12" s="3">
         <v>1</v>
@@ -1622,115 +1591,115 @@
         <v>61</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>77</v>
+        <v>254</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>78</v>
+        <v>253</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>246</v>
+        <v>234</v>
       </c>
       <c r="F13" s="3">
         <v>1</v>
       </c>
       <c r="G13" s="4" t="s">
-        <v>79</v>
+        <v>252</v>
       </c>
       <c r="H13" s="6" t="s">
-        <v>80</v>
+        <v>251</v>
       </c>
       <c r="I13" s="2" t="s">
         <v>15</v>
       </c>
       <c r="J13" s="5" t="s">
-        <v>81</v>
+        <v>250</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>246</v>
+        <v>234</v>
       </c>
       <c r="F14" s="3">
         <v>6</v>
       </c>
       <c r="G14" s="4" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="H14" s="6" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="I14" s="2" t="s">
         <v>15</v>
       </c>
       <c r="J14" s="5" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
-        <v>248</v>
+        <v>236</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>247</v>
+        <v>235</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>247</v>
+        <v>235</v>
       </c>
       <c r="D15" s="2" t="s">
         <v>12</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>246</v>
+        <v>234</v>
       </c>
       <c r="F15" s="3">
         <v>12</v>
       </c>
       <c r="G15" s="4" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="H15" s="5" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="I15" s="2" t="s">
         <v>15</v>
       </c>
       <c r="J15" s="5" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>250</v>
+        <v>238</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>246</v>
+        <v>234</v>
       </c>
       <c r="F16" s="3">
         <v>6</v>
       </c>
       <c r="G16" s="4" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="H16" s="5">
         <v>1751264</v>
@@ -1739,21 +1708,21 @@
         <v>15</v>
       </c>
       <c r="J16" s="5" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>246</v>
+        <v>234</v>
       </c>
       <c r="F17" s="3">
         <v>11</v>
@@ -1762,36 +1731,36 @@
         <v>13</v>
       </c>
       <c r="H17" s="6" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="I17" s="2" t="s">
         <v>15</v>
       </c>
       <c r="J17" s="5" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
       <c r="D18" s="2" t="s">
         <v>12</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>246</v>
+        <v>234</v>
       </c>
       <c r="F18" s="3">
         <v>6</v>
       </c>
       <c r="G18" s="4" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="H18" s="5">
         <v>416131160803</v>
@@ -1800,24 +1769,24 @@
         <v>15</v>
       </c>
       <c r="J18" s="5" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="D19" s="2" t="s">
         <v>12</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>246</v>
+        <v>234</v>
       </c>
       <c r="F19" s="3">
         <v>2</v>
@@ -1826,30 +1795,30 @@
         <v>13</v>
       </c>
       <c r="H19" s="6" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="I19" s="2" t="s">
         <v>15</v>
       </c>
       <c r="J19" s="5" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>113</v>
+        <v>108</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
       <c r="D20" s="2" t="s">
         <v>12</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>246</v>
+        <v>234</v>
       </c>
       <c r="F20" s="3">
         <v>1</v>
@@ -1858,68 +1827,68 @@
         <v>13</v>
       </c>
       <c r="H20" s="6" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="I20" s="2" t="s">
         <v>15</v>
       </c>
       <c r="J20" s="5" t="s">
-        <v>116</v>
+        <v>111</v>
       </c>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
-        <v>117</v>
+        <v>112</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>251</v>
+        <v>239</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>118</v>
+        <v>113</v>
       </c>
       <c r="D21" s="2" t="s">
         <v>12</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>246</v>
+        <v>234</v>
       </c>
       <c r="F21" s="3">
         <v>2</v>
       </c>
       <c r="G21" s="4" t="s">
-        <v>119</v>
+        <v>114</v>
       </c>
       <c r="H21" s="5" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="I21" s="2" t="s">
         <v>15</v>
       </c>
       <c r="J21" s="5" t="s">
-        <v>121</v>
+        <v>116</v>
       </c>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>250</v>
+        <v>238</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>246</v>
+        <v>234</v>
       </c>
       <c r="F22" s="3">
         <v>5</v>
       </c>
       <c r="G22" s="4" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="H22" s="5">
         <v>1751248</v>
@@ -1928,30 +1897,30 @@
         <v>15</v>
       </c>
       <c r="J22" s="5" t="s">
-        <v>124</v>
+        <v>119</v>
       </c>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A23" s="2" t="s">
-        <v>125</v>
+        <v>120</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>250</v>
+        <v>238</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>246</v>
+        <v>234</v>
       </c>
       <c r="F23" s="3">
         <v>3</v>
       </c>
       <c r="G23" s="4" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="H23" s="5">
         <v>1935776</v>
@@ -1960,18 +1929,18 @@
         <v>15</v>
       </c>
       <c r="J23" s="5" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A24" s="2" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>129</v>
+        <v>124</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>130</v>
+        <v>125</v>
       </c>
       <c r="D24" s="2" t="s">
         <v>12</v>
@@ -1981,27 +1950,27 @@
         <v>1</v>
       </c>
       <c r="G24" s="4" t="s">
-        <v>131</v>
+        <v>126</v>
       </c>
       <c r="H24" s="6" t="s">
-        <v>132</v>
+        <v>127</v>
       </c>
       <c r="I24" s="2" t="s">
         <v>15</v>
       </c>
       <c r="J24" s="5" t="s">
-        <v>133</v>
+        <v>128</v>
       </c>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A25" s="2" t="s">
-        <v>134</v>
+        <v>129</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>135</v>
+        <v>130</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>136</v>
+        <v>131</v>
       </c>
       <c r="D25" s="2" t="s">
         <v>12</v>
@@ -2011,27 +1980,27 @@
         <v>1</v>
       </c>
       <c r="G25" s="4" t="s">
+        <v>126</v>
+      </c>
+      <c r="H25" s="6" t="s">
         <v>131</v>
       </c>
-      <c r="H25" s="6" t="s">
-        <v>136</v>
-      </c>
       <c r="I25" s="2" t="s">
         <v>15</v>
       </c>
       <c r="J25" s="5" t="s">
-        <v>137</v>
+        <v>132</v>
       </c>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A26" s="2" t="s">
-        <v>138</v>
+        <v>133</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>259</v>
+        <v>247</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>258</v>
+        <v>246</v>
       </c>
       <c r="D26" s="2" t="s">
         <v>12</v>
@@ -2041,63 +2010,65 @@
         <v>1</v>
       </c>
       <c r="G26" s="4" t="s">
-        <v>260</v>
+        <v>248</v>
       </c>
       <c r="H26" s="6" t="s">
-        <v>258</v>
+        <v>246</v>
       </c>
       <c r="I26" s="2" t="s">
         <v>15</v>
       </c>
       <c r="J26" s="5" t="s">
-        <v>261</v>
+        <v>249</v>
       </c>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A27" s="2" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>140</v>
+        <v>135</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>141</v>
+        <v>136</v>
       </c>
       <c r="D27" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="E27" s="2"/>
+      <c r="E27" s="2" t="s">
+        <v>234</v>
+      </c>
       <c r="F27" s="3">
         <v>1</v>
       </c>
       <c r="G27" s="4" t="s">
-        <v>142</v>
+        <v>137</v>
       </c>
       <c r="H27" s="6" t="s">
-        <v>143</v>
+        <v>138</v>
       </c>
       <c r="I27" s="2" t="s">
         <v>15</v>
       </c>
       <c r="J27" s="5" t="s">
-        <v>144</v>
+        <v>139</v>
       </c>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A28" s="2" t="s">
-        <v>145</v>
+        <v>140</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>146</v>
+        <v>141</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>147</v>
+        <v>142</v>
       </c>
       <c r="D28" s="2" t="s">
         <v>12</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>246</v>
+        <v>234</v>
       </c>
       <c r="F28" s="3">
         <v>2</v>
@@ -2106,62 +2077,62 @@
         <v>13</v>
       </c>
       <c r="H28" s="6" t="s">
-        <v>148</v>
+        <v>143</v>
       </c>
       <c r="I28" s="2" t="s">
         <v>15</v>
       </c>
       <c r="J28" s="5" t="s">
-        <v>149</v>
+        <v>144</v>
       </c>
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A29" s="2" t="s">
-        <v>150</v>
+        <v>145</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>252</v>
+        <v>240</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>249</v>
+        <v>237</v>
       </c>
       <c r="D29" s="2" t="s">
         <v>12</v>
       </c>
       <c r="E29" s="2" t="s">
-        <v>246</v>
+        <v>234</v>
       </c>
       <c r="F29" s="3">
         <v>1</v>
       </c>
       <c r="G29" s="4" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
       <c r="H29" s="5" t="s">
-        <v>152</v>
+        <v>147</v>
       </c>
       <c r="I29" s="2" t="s">
         <v>15</v>
       </c>
       <c r="J29" s="5" t="s">
-        <v>153</v>
+        <v>148</v>
       </c>
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A30" s="2" t="s">
-        <v>154</v>
+        <v>149</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="D30" s="2" t="s">
         <v>12</v>
       </c>
       <c r="E30" s="2" t="s">
-        <v>246</v>
+        <v>234</v>
       </c>
       <c r="F30" s="3">
         <v>2</v>
@@ -2170,180 +2141,184 @@
         <v>13</v>
       </c>
       <c r="H30" s="6" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="I30" s="2" t="s">
         <v>15</v>
       </c>
       <c r="J30" s="5" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A31" s="2" t="s">
-        <v>155</v>
+        <v>150</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>156</v>
+        <v>262</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>157</v>
+        <v>151</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>158</v>
+        <v>152</v>
       </c>
       <c r="E31" s="2" t="s">
-        <v>246</v>
+        <v>234</v>
       </c>
       <c r="F31" s="3">
         <v>1</v>
       </c>
       <c r="G31" s="4" t="s">
-        <v>159</v>
+        <v>153</v>
       </c>
       <c r="H31" s="6" t="s">
-        <v>160</v>
+        <v>154</v>
       </c>
       <c r="I31" s="2" t="s">
         <v>15</v>
       </c>
       <c r="J31" s="5" t="s">
-        <v>161</v>
+        <v>155</v>
       </c>
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A32" s="2" t="s">
-        <v>162</v>
+        <v>156</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>156</v>
+        <v>261</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>163</v>
+        <v>257</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>164</v>
-      </c>
-      <c r="E32" s="2"/>
+        <v>157</v>
+      </c>
+      <c r="E32" s="2" t="s">
+        <v>234</v>
+      </c>
       <c r="F32" s="3">
         <v>1</v>
       </c>
       <c r="G32" s="4" t="s">
-        <v>165</v>
+        <v>67</v>
       </c>
       <c r="H32" s="6" t="s">
-        <v>166</v>
+        <v>256</v>
       </c>
       <c r="I32" s="2" t="s">
-        <v>167</v>
-      </c>
-      <c r="J32" s="5">
-        <v>2288635</v>
+        <v>15</v>
+      </c>
+      <c r="J32" s="5" t="s">
+        <v>255</v>
       </c>
     </row>
     <row r="33" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A33" s="2" t="s">
-        <v>168</v>
+        <v>158</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>156</v>
+        <v>261</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>169</v>
+        <v>260</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>170</v>
-      </c>
-      <c r="E33" s="2"/>
+        <v>159</v>
+      </c>
+      <c r="E33" s="2" t="s">
+        <v>234</v>
+      </c>
       <c r="F33" s="3">
         <v>1</v>
       </c>
       <c r="G33" s="4" t="s">
-        <v>165</v>
+        <v>67</v>
       </c>
       <c r="H33" s="6" t="s">
-        <v>171</v>
+        <v>259</v>
       </c>
       <c r="I33" s="2" t="s">
-        <v>167</v>
-      </c>
-      <c r="J33" s="5">
-        <v>2287252</v>
+        <v>15</v>
+      </c>
+      <c r="J33" s="5" t="s">
+        <v>258</v>
       </c>
     </row>
     <row r="34" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A34" s="2" t="s">
-        <v>172</v>
+        <v>160</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>173</v>
+        <v>161</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>174</v>
+        <v>162</v>
       </c>
       <c r="D34" s="2" t="s">
         <v>12</v>
       </c>
       <c r="E34" s="2" t="s">
-        <v>246</v>
+        <v>234</v>
       </c>
       <c r="F34" s="3">
         <v>7</v>
       </c>
       <c r="G34" s="4" t="s">
-        <v>175</v>
+        <v>163</v>
       </c>
       <c r="H34" s="6" t="s">
-        <v>176</v>
+        <v>164</v>
       </c>
       <c r="I34" s="2" t="s">
         <v>15</v>
       </c>
       <c r="J34" s="5" t="s">
-        <v>177</v>
+        <v>165</v>
       </c>
     </row>
     <row r="35" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A35" s="2" t="s">
-        <v>178</v>
+        <v>166</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>173</v>
+        <v>161</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>179</v>
+        <v>167</v>
       </c>
       <c r="D35" s="2" t="s">
         <v>12</v>
       </c>
       <c r="E35" s="2" t="s">
-        <v>246</v>
+        <v>234</v>
       </c>
       <c r="F35" s="3">
         <v>3</v>
       </c>
       <c r="G35" s="4" t="s">
-        <v>175</v>
+        <v>163</v>
       </c>
       <c r="H35" s="6" t="s">
-        <v>180</v>
+        <v>168</v>
       </c>
       <c r="I35" s="2" t="s">
         <v>15</v>
       </c>
       <c r="J35" s="5" t="s">
-        <v>181</v>
+        <v>169</v>
       </c>
     </row>
     <row r="36" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A36" s="2" t="s">
-        <v>182</v>
+        <v>170</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>253</v>
+        <v>241</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>183</v>
+        <v>171</v>
       </c>
       <c r="D36" s="2" t="s">
         <v>12</v>
@@ -2353,33 +2328,33 @@
         <v>6</v>
       </c>
       <c r="G36" s="4" t="s">
-        <v>184</v>
+        <v>172</v>
       </c>
       <c r="H36" s="5" t="s">
-        <v>185</v>
+        <v>173</v>
       </c>
       <c r="I36" s="2" t="s">
         <v>15</v>
       </c>
       <c r="J36" s="5" t="s">
-        <v>186</v>
+        <v>174</v>
       </c>
     </row>
     <row r="37" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A37" s="2" t="s">
-        <v>187</v>
+        <v>175</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>188</v>
+        <v>176</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>189</v>
+        <v>177</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>190</v>
+        <v>178</v>
       </c>
       <c r="E37" s="2" t="s">
-        <v>246</v>
+        <v>234</v>
       </c>
       <c r="F37" s="3">
         <v>2</v>
@@ -2388,30 +2363,30 @@
         <v>38</v>
       </c>
       <c r="H37" s="6" t="s">
-        <v>191</v>
+        <v>179</v>
       </c>
       <c r="I37" s="2" t="s">
         <v>15</v>
       </c>
       <c r="J37" s="5" t="s">
-        <v>192</v>
+        <v>180</v>
       </c>
     </row>
     <row r="38" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A38" s="2" t="s">
-        <v>193</v>
+        <v>181</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>188</v>
+        <v>176</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>194</v>
+        <v>182</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>195</v>
+        <v>183</v>
       </c>
       <c r="E38" s="2" t="s">
-        <v>246</v>
+        <v>234</v>
       </c>
       <c r="F38" s="3">
         <v>11</v>
@@ -2420,30 +2395,30 @@
         <v>38</v>
       </c>
       <c r="H38" s="6" t="s">
-        <v>196</v>
+        <v>184</v>
       </c>
       <c r="I38" s="2" t="s">
         <v>15</v>
       </c>
       <c r="J38" s="5" t="s">
-        <v>197</v>
+        <v>185</v>
       </c>
     </row>
     <row r="39" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A39" s="2" t="s">
-        <v>198</v>
+        <v>186</v>
       </c>
       <c r="B39" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="C39" s="2" t="s">
+        <v>187</v>
+      </c>
+      <c r="D39" s="2" t="s">
         <v>188</v>
       </c>
-      <c r="C39" s="2" t="s">
-        <v>199</v>
-      </c>
-      <c r="D39" s="2" t="s">
-        <v>200</v>
-      </c>
       <c r="E39" s="2" t="s">
-        <v>246</v>
+        <v>234</v>
       </c>
       <c r="F39" s="3">
         <v>14</v>
@@ -2452,30 +2427,30 @@
         <v>38</v>
       </c>
       <c r="H39" s="6" t="s">
-        <v>201</v>
+        <v>189</v>
       </c>
       <c r="I39" s="2" t="s">
         <v>15</v>
       </c>
       <c r="J39" s="5" t="s">
-        <v>202</v>
+        <v>190</v>
       </c>
     </row>
     <row r="40" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A40" s="2" t="s">
-        <v>203</v>
+        <v>191</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>188</v>
+        <v>176</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>254</v>
+        <v>242</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>255</v>
+        <v>243</v>
       </c>
       <c r="E40" s="2" t="s">
-        <v>246</v>
+        <v>234</v>
       </c>
       <c r="F40" s="3">
         <v>1</v>
@@ -2484,30 +2459,30 @@
         <v>38</v>
       </c>
       <c r="H40" s="6" t="s">
-        <v>256</v>
+        <v>244</v>
       </c>
       <c r="I40" s="2" t="s">
         <v>15</v>
       </c>
       <c r="J40" s="5" t="s">
-        <v>257</v>
+        <v>245</v>
       </c>
     </row>
     <row r="41" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A41" s="2" t="s">
-        <v>204</v>
+        <v>192</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>188</v>
+        <v>176</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>205</v>
+        <v>193</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>206</v>
+        <v>194</v>
       </c>
       <c r="E41" s="2" t="s">
-        <v>246</v>
+        <v>234</v>
       </c>
       <c r="F41" s="3">
         <v>2</v>
@@ -2516,30 +2491,30 @@
         <v>38</v>
       </c>
       <c r="H41" s="6" t="s">
-        <v>207</v>
+        <v>195</v>
       </c>
       <c r="I41" s="2" t="s">
         <v>15</v>
       </c>
       <c r="J41" s="5" t="s">
-        <v>208</v>
+        <v>196</v>
       </c>
     </row>
     <row r="42" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A42" s="2" t="s">
-        <v>209</v>
+        <v>197</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>188</v>
+        <v>176</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>210</v>
+        <v>198</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>211</v>
+        <v>199</v>
       </c>
       <c r="E42" s="2" t="s">
-        <v>246</v>
+        <v>234</v>
       </c>
       <c r="F42" s="3">
         <v>12</v>
@@ -2548,30 +2523,30 @@
         <v>38</v>
       </c>
       <c r="H42" s="6" t="s">
-        <v>212</v>
+        <v>200</v>
       </c>
       <c r="I42" s="2" t="s">
         <v>15</v>
       </c>
       <c r="J42" s="5" t="s">
-        <v>213</v>
+        <v>201</v>
       </c>
     </row>
     <row r="43" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A43" s="2" t="s">
-        <v>214</v>
+        <v>202</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>188</v>
+        <v>176</v>
       </c>
       <c r="C43" s="2" t="s">
-        <v>215</v>
+        <v>203</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>216</v>
+        <v>204</v>
       </c>
       <c r="E43" s="2" t="s">
-        <v>246</v>
+        <v>234</v>
       </c>
       <c r="F43" s="3">
         <v>6</v>
@@ -2580,30 +2555,30 @@
         <v>38</v>
       </c>
       <c r="H43" s="6" t="s">
-        <v>217</v>
+        <v>205</v>
       </c>
       <c r="I43" s="2" t="s">
         <v>15</v>
       </c>
       <c r="J43" s="5" t="s">
-        <v>218</v>
+        <v>206</v>
       </c>
     </row>
     <row r="44" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A44" s="2" t="s">
-        <v>219</v>
+        <v>207</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>188</v>
+        <v>176</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>220</v>
+        <v>208</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>221</v>
+        <v>209</v>
       </c>
       <c r="E44" s="2" t="s">
-        <v>246</v>
+        <v>234</v>
       </c>
       <c r="F44" s="3">
         <v>5</v>
@@ -2612,30 +2587,30 @@
         <v>38</v>
       </c>
       <c r="H44" s="6" t="s">
-        <v>222</v>
+        <v>210</v>
       </c>
       <c r="I44" s="2" t="s">
         <v>15</v>
       </c>
       <c r="J44" s="5" t="s">
-        <v>223</v>
+        <v>211</v>
       </c>
     </row>
     <row r="45" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A45" s="2" t="s">
-        <v>224</v>
+        <v>212</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>188</v>
+        <v>176</v>
       </c>
       <c r="C45" s="2" t="s">
-        <v>225</v>
+        <v>213</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>226</v>
+        <v>214</v>
       </c>
       <c r="E45" s="2" t="s">
-        <v>246</v>
+        <v>234</v>
       </c>
       <c r="F45" s="3">
         <v>1</v>
@@ -2644,94 +2619,94 @@
         <v>38</v>
       </c>
       <c r="H45" s="6" t="s">
-        <v>227</v>
+        <v>215</v>
       </c>
       <c r="I45" s="2" t="s">
         <v>15</v>
       </c>
       <c r="J45" s="5" t="s">
-        <v>228</v>
+        <v>216</v>
       </c>
     </row>
     <row r="46" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A46" s="2" t="s">
-        <v>229</v>
+        <v>217</v>
       </c>
       <c r="B46" s="2" t="s">
         <v>12</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>230</v>
+        <v>218</v>
       </c>
       <c r="D46" s="2" t="s">
         <v>12</v>
       </c>
       <c r="E46" s="2" t="s">
-        <v>246</v>
+        <v>234</v>
       </c>
       <c r="F46" s="3">
         <v>1</v>
       </c>
       <c r="G46" s="4" t="s">
-        <v>231</v>
+        <v>219</v>
       </c>
       <c r="H46" s="5" t="s">
-        <v>232</v>
+        <v>220</v>
       </c>
       <c r="I46" s="2" t="s">
         <v>15</v>
       </c>
       <c r="J46" s="5" t="s">
-        <v>233</v>
+        <v>221</v>
       </c>
     </row>
     <row r="47" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A47" s="2" t="s">
-        <v>234</v>
+        <v>222</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>235</v>
+        <v>223</v>
       </c>
       <c r="C47" s="2" t="s">
-        <v>236</v>
+        <v>224</v>
       </c>
       <c r="D47" s="2" t="s">
         <v>12</v>
       </c>
       <c r="E47" s="2" t="s">
-        <v>246</v>
+        <v>234</v>
       </c>
       <c r="F47" s="3">
         <v>2</v>
       </c>
       <c r="G47" s="4" t="s">
-        <v>237</v>
+        <v>225</v>
       </c>
       <c r="H47" s="6" t="s">
-        <v>238</v>
+        <v>226</v>
       </c>
       <c r="I47" s="2" t="s">
         <v>15</v>
       </c>
       <c r="J47" s="5" t="s">
-        <v>239</v>
+        <v>227</v>
       </c>
     </row>
     <row r="48" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A48" s="2" t="s">
-        <v>240</v>
+        <v>228</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>241</v>
+        <v>229</v>
       </c>
       <c r="C48" s="2" t="s">
-        <v>242</v>
+        <v>230</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>243</v>
+        <v>231</v>
       </c>
       <c r="E48" s="2" t="s">
-        <v>246</v>
+        <v>234</v>
       </c>
       <c r="F48" s="3">
         <v>2</v>
@@ -2740,13 +2715,13 @@
         <v>67</v>
       </c>
       <c r="H48" s="6" t="s">
-        <v>243</v>
+        <v>231</v>
       </c>
       <c r="I48" s="2" t="s">
         <v>15</v>
       </c>
       <c r="J48" s="5" t="s">
-        <v>244</v>
+        <v>232</v>
       </c>
     </row>
   </sheetData>
@@ -2784,111 +2759,103 @@
     <hyperlink ref="G12" r:id="rId31" tooltip="Component"/>
     <hyperlink ref="H12" r:id="rId32" tooltip="Manufacturer"/>
     <hyperlink ref="J12" r:id="rId33" tooltip="Supplier"/>
-    <hyperlink ref="G13" r:id="rId34" tooltip="Component"/>
-    <hyperlink ref="H13" r:id="rId35" tooltip="Manufacturer"/>
-    <hyperlink ref="J13" r:id="rId36" tooltip="Supplier"/>
-    <hyperlink ref="G14" r:id="rId37" tooltip="Component"/>
-    <hyperlink ref="H14" r:id="rId38" tooltip="Manufacturer"/>
-    <hyperlink ref="J14" r:id="rId39" tooltip="Supplier"/>
-    <hyperlink ref="G15" r:id="rId40" tooltip="Component"/>
-    <hyperlink ref="H15" r:id="rId41" tooltip="Manufacturer"/>
-    <hyperlink ref="J15" r:id="rId42" tooltip="Supplier"/>
-    <hyperlink ref="G16" r:id="rId43" tooltip="Component"/>
-    <hyperlink ref="H16" r:id="rId44" tooltip="Manufacturer" display="1751264"/>
-    <hyperlink ref="J16" r:id="rId45" tooltip="Supplier"/>
-    <hyperlink ref="G17" r:id="rId46" tooltip="Component"/>
-    <hyperlink ref="H17" r:id="rId47" tooltip="Manufacturer"/>
-    <hyperlink ref="J17" r:id="rId48" tooltip="Supplier"/>
-    <hyperlink ref="G18" r:id="rId49" tooltip="Component"/>
-    <hyperlink ref="H18" r:id="rId50" tooltip="Manufacturer" display="416131160803"/>
-    <hyperlink ref="J18" r:id="rId51" tooltip="Supplier"/>
-    <hyperlink ref="G19" r:id="rId52" tooltip="Component"/>
-    <hyperlink ref="H19" r:id="rId53" tooltip="Manufacturer"/>
-    <hyperlink ref="J19" r:id="rId54" tooltip="Supplier"/>
-    <hyperlink ref="G20" r:id="rId55" tooltip="Component"/>
-    <hyperlink ref="H20" r:id="rId56" tooltip="Manufacturer"/>
-    <hyperlink ref="J20" r:id="rId57" tooltip="Supplier"/>
-    <hyperlink ref="G21" r:id="rId58" tooltip="Component"/>
-    <hyperlink ref="H21" r:id="rId59" tooltip="Manufacturer"/>
-    <hyperlink ref="J21" r:id="rId60" tooltip="Supplier"/>
-    <hyperlink ref="G22" r:id="rId61" tooltip="Component"/>
-    <hyperlink ref="H22" r:id="rId62" tooltip="Manufacturer" display="1751248"/>
-    <hyperlink ref="J22" r:id="rId63" tooltip="Supplier"/>
-    <hyperlink ref="G23" r:id="rId64" tooltip="Component"/>
-    <hyperlink ref="H23" r:id="rId65" tooltip="Manufacturer" display="1935776"/>
-    <hyperlink ref="J23" r:id="rId66" tooltip="Supplier"/>
-    <hyperlink ref="G24" r:id="rId67" tooltip="Component"/>
-    <hyperlink ref="H24" r:id="rId68" tooltip="Manufacturer"/>
-    <hyperlink ref="J24" r:id="rId69" tooltip="Supplier"/>
-    <hyperlink ref="G25" r:id="rId70" tooltip="Component"/>
-    <hyperlink ref="H25" r:id="rId71" tooltip="Manufacturer"/>
-    <hyperlink ref="J25" r:id="rId72" tooltip="Supplier"/>
-    <hyperlink ref="G27" r:id="rId73" tooltip="Component"/>
-    <hyperlink ref="H27" r:id="rId74" tooltip="Manufacturer"/>
-    <hyperlink ref="J27" r:id="rId75" tooltip="Supplier"/>
-    <hyperlink ref="G28" r:id="rId76" tooltip="Component"/>
-    <hyperlink ref="H28" r:id="rId77" tooltip="Manufacturer"/>
-    <hyperlink ref="J28" r:id="rId78" tooltip="Supplier"/>
-    <hyperlink ref="G29" r:id="rId79" tooltip="Component"/>
-    <hyperlink ref="H29" r:id="rId80" tooltip="Manufacturer"/>
-    <hyperlink ref="J29" r:id="rId81" tooltip="Supplier"/>
-    <hyperlink ref="G30" r:id="rId82" tooltip="Component"/>
-    <hyperlink ref="H30" r:id="rId83" tooltip="Manufacturer"/>
-    <hyperlink ref="J30" r:id="rId84" tooltip="Supplier"/>
-    <hyperlink ref="G31" r:id="rId85" tooltip="Component"/>
-    <hyperlink ref="H31" r:id="rId86" tooltip="Manufacturer"/>
-    <hyperlink ref="J31" r:id="rId87" tooltip="Supplier"/>
-    <hyperlink ref="G32" r:id="rId88" tooltip="Component"/>
-    <hyperlink ref="H32" r:id="rId89" tooltip="Manufacturer"/>
-    <hyperlink ref="J32" r:id="rId90" tooltip="Supplier" display="2288635"/>
-    <hyperlink ref="G33" r:id="rId91" tooltip="Component"/>
-    <hyperlink ref="H33" r:id="rId92" tooltip="Manufacturer"/>
-    <hyperlink ref="J33" r:id="rId93" tooltip="Supplier" display="2287252"/>
-    <hyperlink ref="G34" r:id="rId94" tooltip="Component"/>
-    <hyperlink ref="H34" r:id="rId95" tooltip="Manufacturer"/>
-    <hyperlink ref="J34" r:id="rId96" tooltip="Supplier"/>
-    <hyperlink ref="G35" r:id="rId97" tooltip="Component"/>
-    <hyperlink ref="H35" r:id="rId98" tooltip="Manufacturer"/>
-    <hyperlink ref="J35" r:id="rId99" tooltip="Supplier"/>
-    <hyperlink ref="G36" r:id="rId100" tooltip="Component"/>
-    <hyperlink ref="H36" r:id="rId101" tooltip="Manufacturer"/>
-    <hyperlink ref="J36" r:id="rId102" tooltip="Supplier"/>
-    <hyperlink ref="G37" r:id="rId103" tooltip="Component"/>
-    <hyperlink ref="H37" r:id="rId104" tooltip="Manufacturer"/>
-    <hyperlink ref="J37" r:id="rId105" tooltip="Supplier"/>
-    <hyperlink ref="G38" r:id="rId106" tooltip="Component"/>
-    <hyperlink ref="H38" r:id="rId107" tooltip="Manufacturer"/>
-    <hyperlink ref="J38" r:id="rId108" tooltip="Supplier"/>
-    <hyperlink ref="G39" r:id="rId109" tooltip="Component"/>
-    <hyperlink ref="H39" r:id="rId110" tooltip="Manufacturer"/>
-    <hyperlink ref="J39" r:id="rId111" tooltip="Supplier"/>
-    <hyperlink ref="G40" r:id="rId112" tooltip="Component"/>
-    <hyperlink ref="G41" r:id="rId113" tooltip="Component"/>
-    <hyperlink ref="H41" r:id="rId114" tooltip="Manufacturer"/>
-    <hyperlink ref="J41" r:id="rId115" tooltip="Supplier"/>
-    <hyperlink ref="G42" r:id="rId116" tooltip="Component"/>
-    <hyperlink ref="H42" r:id="rId117" tooltip="Manufacturer"/>
-    <hyperlink ref="J42" r:id="rId118" tooltip="Supplier"/>
-    <hyperlink ref="G43" r:id="rId119" tooltip="Component"/>
-    <hyperlink ref="H43" r:id="rId120" tooltip="Manufacturer"/>
-    <hyperlink ref="J43" r:id="rId121" tooltip="Supplier"/>
-    <hyperlink ref="G44" r:id="rId122" tooltip="Component"/>
-    <hyperlink ref="H44" r:id="rId123" tooltip="Manufacturer"/>
-    <hyperlink ref="J44" r:id="rId124" tooltip="Supplier"/>
-    <hyperlink ref="G45" r:id="rId125" tooltip="Component"/>
-    <hyperlink ref="H45" r:id="rId126" tooltip="Manufacturer"/>
-    <hyperlink ref="J45" r:id="rId127" tooltip="Supplier"/>
-    <hyperlink ref="G46" r:id="rId128" tooltip="Component"/>
-    <hyperlink ref="H46" r:id="rId129" tooltip="Manufacturer"/>
-    <hyperlink ref="J46" r:id="rId130" tooltip="Supplier"/>
-    <hyperlink ref="G47" r:id="rId131" tooltip="Component"/>
-    <hyperlink ref="H47" r:id="rId132" tooltip="Manufacturer"/>
-    <hyperlink ref="J47" r:id="rId133" tooltip="Supplier"/>
-    <hyperlink ref="G48" r:id="rId134" tooltip="Component"/>
-    <hyperlink ref="H48" r:id="rId135" tooltip="Manufacturer"/>
-    <hyperlink ref="J48" r:id="rId136" tooltip="Supplier"/>
+    <hyperlink ref="G14" r:id="rId34" tooltip="Component"/>
+    <hyperlink ref="H14" r:id="rId35" tooltip="Manufacturer"/>
+    <hyperlink ref="J14" r:id="rId36" tooltip="Supplier"/>
+    <hyperlink ref="G15" r:id="rId37" tooltip="Component"/>
+    <hyperlink ref="H15" r:id="rId38" tooltip="Manufacturer"/>
+    <hyperlink ref="J15" r:id="rId39" tooltip="Supplier"/>
+    <hyperlink ref="G16" r:id="rId40" tooltip="Component"/>
+    <hyperlink ref="H16" r:id="rId41" tooltip="Manufacturer" display="1751264"/>
+    <hyperlink ref="J16" r:id="rId42" tooltip="Supplier"/>
+    <hyperlink ref="G17" r:id="rId43" tooltip="Component"/>
+    <hyperlink ref="H17" r:id="rId44" tooltip="Manufacturer"/>
+    <hyperlink ref="J17" r:id="rId45" tooltip="Supplier"/>
+    <hyperlink ref="G18" r:id="rId46" tooltip="Component"/>
+    <hyperlink ref="H18" r:id="rId47" tooltip="Manufacturer" display="416131160803"/>
+    <hyperlink ref="J18" r:id="rId48" tooltip="Supplier"/>
+    <hyperlink ref="G19" r:id="rId49" tooltip="Component"/>
+    <hyperlink ref="H19" r:id="rId50" tooltip="Manufacturer"/>
+    <hyperlink ref="J19" r:id="rId51" tooltip="Supplier"/>
+    <hyperlink ref="G20" r:id="rId52" tooltip="Component"/>
+    <hyperlink ref="H20" r:id="rId53" tooltip="Manufacturer"/>
+    <hyperlink ref="J20" r:id="rId54" tooltip="Supplier"/>
+    <hyperlink ref="G21" r:id="rId55" tooltip="Component"/>
+    <hyperlink ref="H21" r:id="rId56" tooltip="Manufacturer"/>
+    <hyperlink ref="J21" r:id="rId57" tooltip="Supplier"/>
+    <hyperlink ref="G22" r:id="rId58" tooltip="Component"/>
+    <hyperlink ref="H22" r:id="rId59" tooltip="Manufacturer" display="1751248"/>
+    <hyperlink ref="J22" r:id="rId60" tooltip="Supplier"/>
+    <hyperlink ref="G23" r:id="rId61" tooltip="Component"/>
+    <hyperlink ref="H23" r:id="rId62" tooltip="Manufacturer" display="1935776"/>
+    <hyperlink ref="J23" r:id="rId63" tooltip="Supplier"/>
+    <hyperlink ref="G24" r:id="rId64" tooltip="Component"/>
+    <hyperlink ref="H24" r:id="rId65" tooltip="Manufacturer"/>
+    <hyperlink ref="J24" r:id="rId66" tooltip="Supplier"/>
+    <hyperlink ref="G25" r:id="rId67" tooltip="Component"/>
+    <hyperlink ref="H25" r:id="rId68" tooltip="Manufacturer"/>
+    <hyperlink ref="J25" r:id="rId69" tooltip="Supplier"/>
+    <hyperlink ref="G27" r:id="rId70" tooltip="Component"/>
+    <hyperlink ref="H27" r:id="rId71" tooltip="Manufacturer"/>
+    <hyperlink ref="J27" r:id="rId72" tooltip="Supplier"/>
+    <hyperlink ref="G28" r:id="rId73" tooltip="Component"/>
+    <hyperlink ref="H28" r:id="rId74" tooltip="Manufacturer"/>
+    <hyperlink ref="J28" r:id="rId75" tooltip="Supplier"/>
+    <hyperlink ref="G29" r:id="rId76" tooltip="Component"/>
+    <hyperlink ref="H29" r:id="rId77" tooltip="Manufacturer"/>
+    <hyperlink ref="J29" r:id="rId78" tooltip="Supplier"/>
+    <hyperlink ref="G30" r:id="rId79" tooltip="Component"/>
+    <hyperlink ref="H30" r:id="rId80" tooltip="Manufacturer"/>
+    <hyperlink ref="J30" r:id="rId81" tooltip="Supplier"/>
+    <hyperlink ref="G31" r:id="rId82" tooltip="Component"/>
+    <hyperlink ref="H31" r:id="rId83" tooltip="Manufacturer"/>
+    <hyperlink ref="J31" r:id="rId84" tooltip="Supplier"/>
+    <hyperlink ref="G32" r:id="rId85" tooltip="Component" display="COILCRAFT"/>
+    <hyperlink ref="G34" r:id="rId86" tooltip="Component"/>
+    <hyperlink ref="H34" r:id="rId87" tooltip="Manufacturer"/>
+    <hyperlink ref="J34" r:id="rId88" tooltip="Supplier"/>
+    <hyperlink ref="G35" r:id="rId89" tooltip="Component"/>
+    <hyperlink ref="H35" r:id="rId90" tooltip="Manufacturer"/>
+    <hyperlink ref="J35" r:id="rId91" tooltip="Supplier"/>
+    <hyperlink ref="G36" r:id="rId92" tooltip="Component"/>
+    <hyperlink ref="H36" r:id="rId93" tooltip="Manufacturer"/>
+    <hyperlink ref="J36" r:id="rId94" tooltip="Supplier"/>
+    <hyperlink ref="G37" r:id="rId95" tooltip="Component"/>
+    <hyperlink ref="H37" r:id="rId96" tooltip="Manufacturer"/>
+    <hyperlink ref="J37" r:id="rId97" tooltip="Supplier"/>
+    <hyperlink ref="G38" r:id="rId98" tooltip="Component"/>
+    <hyperlink ref="H38" r:id="rId99" tooltip="Manufacturer"/>
+    <hyperlink ref="J38" r:id="rId100" tooltip="Supplier"/>
+    <hyperlink ref="G39" r:id="rId101" tooltip="Component"/>
+    <hyperlink ref="H39" r:id="rId102" tooltip="Manufacturer"/>
+    <hyperlink ref="J39" r:id="rId103" tooltip="Supplier"/>
+    <hyperlink ref="G40" r:id="rId104" tooltip="Component"/>
+    <hyperlink ref="G41" r:id="rId105" tooltip="Component"/>
+    <hyperlink ref="H41" r:id="rId106" tooltip="Manufacturer"/>
+    <hyperlink ref="J41" r:id="rId107" tooltip="Supplier"/>
+    <hyperlink ref="G42" r:id="rId108" tooltip="Component"/>
+    <hyperlink ref="H42" r:id="rId109" tooltip="Manufacturer"/>
+    <hyperlink ref="J42" r:id="rId110" tooltip="Supplier"/>
+    <hyperlink ref="G43" r:id="rId111" tooltip="Component"/>
+    <hyperlink ref="H43" r:id="rId112" tooltip="Manufacturer"/>
+    <hyperlink ref="J43" r:id="rId113" tooltip="Supplier"/>
+    <hyperlink ref="G44" r:id="rId114" tooltip="Component"/>
+    <hyperlink ref="H44" r:id="rId115" tooltip="Manufacturer"/>
+    <hyperlink ref="J44" r:id="rId116" tooltip="Supplier"/>
+    <hyperlink ref="G45" r:id="rId117" tooltip="Component"/>
+    <hyperlink ref="H45" r:id="rId118" tooltip="Manufacturer"/>
+    <hyperlink ref="J45" r:id="rId119" tooltip="Supplier"/>
+    <hyperlink ref="G46" r:id="rId120" tooltip="Component"/>
+    <hyperlink ref="H46" r:id="rId121" tooltip="Manufacturer"/>
+    <hyperlink ref="J46" r:id="rId122" tooltip="Supplier"/>
+    <hyperlink ref="G47" r:id="rId123" tooltip="Component"/>
+    <hyperlink ref="H47" r:id="rId124" tooltip="Manufacturer"/>
+    <hyperlink ref="J47" r:id="rId125" tooltip="Supplier"/>
+    <hyperlink ref="G48" r:id="rId126" tooltip="Component"/>
+    <hyperlink ref="H48" r:id="rId127" tooltip="Manufacturer"/>
+    <hyperlink ref="J48" r:id="rId128" tooltip="Supplier"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId137"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId129"/>
 </worksheet>
 </file>
--- a/Source/Project Outputs for RUMBA_plus/RUMBA_plus_BOM.xlsx
+++ b/Source/Project Outputs for RUMBA_plus/RUMBA_plus_BOM.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="17329"/>
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Chris\Documents\Git\RUMBA-Plus\Source\Project Outputs for RUMBA_plus\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Git\RUMBA-Plus\Source\Project Outputs for RUMBA_plus\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -14,7 +14,7 @@
   <sheets>
     <sheet name="BOM" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913" refMode="R1C1"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="439" uniqueCount="263">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="424" uniqueCount="261">
   <si>
     <t>Designator</t>
   </si>
@@ -239,21 +239,6 @@
     <t>D5</t>
   </si>
   <si>
-    <t>Diode MBRM140</t>
-  </si>
-  <si>
-    <t>MBRM140</t>
-  </si>
-  <si>
-    <t>ON Semiconductor</t>
-  </si>
-  <si>
-    <t>MBRM140T3G</t>
-  </si>
-  <si>
-    <t>MBRM140T3GOSCT-ND</t>
-  </si>
-  <si>
     <t>D8</t>
   </si>
   <si>
@@ -813,6 +798,15 @@
   </si>
   <si>
     <t>Ferrite Bead Inductor</t>
+  </si>
+  <si>
+    <t>Diode Schottky 2A 40V</t>
+  </si>
+  <si>
+    <t>DB2W40200L</t>
+  </si>
+  <si>
+    <t>2A 40V Schottky SOD-123F</t>
   </si>
 </sst>
 </file>
@@ -992,6 +986,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -1027,6 +1038,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1182,7 +1210,7 @@
   <dimension ref="A1:J48"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="D26" sqref="D26"/>
+      <selection activeCell="L12" sqref="L12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1190,7 +1218,7 @@
     <col min="1" max="1" width="77.7109375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="33.42578125" customWidth="1"/>
     <col min="3" max="3" width="23.42578125" customWidth="1"/>
-    <col min="4" max="4" width="18.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="20.7109375" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="14.42578125" customWidth="1"/>
     <col min="6" max="6" width="7.28515625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="26.28515625" customWidth="1"/>
@@ -1213,7 +1241,7 @@
         <v>3</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>233</v>
+        <v>228</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>4</v>
@@ -1245,7 +1273,7 @@
         <v>12</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>234</v>
+        <v>229</v>
       </c>
       <c r="F2" s="3">
         <v>6</v>
@@ -1277,7 +1305,7 @@
         <v>12</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>234</v>
+        <v>229</v>
       </c>
       <c r="F3" s="3">
         <v>10</v>
@@ -1309,7 +1337,7 @@
         <v>25</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>234</v>
+        <v>229</v>
       </c>
       <c r="F4" s="3">
         <v>1</v>
@@ -1341,7 +1369,7 @@
         <v>31</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>234</v>
+        <v>229</v>
       </c>
       <c r="F5" s="3">
         <v>1</v>
@@ -1373,7 +1401,7 @@
         <v>37</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>234</v>
+        <v>229</v>
       </c>
       <c r="F6" s="3">
         <v>10</v>
@@ -1405,7 +1433,7 @@
         <v>43</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>234</v>
+        <v>229</v>
       </c>
       <c r="F7" s="3">
         <v>5</v>
@@ -1437,7 +1465,7 @@
         <v>50</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>234</v>
+        <v>229</v>
       </c>
       <c r="F8" s="3">
         <v>6</v>
@@ -1469,7 +1497,7 @@
         <v>56</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>234</v>
+        <v>229</v>
       </c>
       <c r="F9" s="3">
         <v>8</v>
@@ -1501,7 +1529,7 @@
         <v>12</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>234</v>
+        <v>229</v>
       </c>
       <c r="F10" s="3">
         <v>3</v>
@@ -1533,7 +1561,7 @@
         <v>12</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>234</v>
+        <v>229</v>
       </c>
       <c r="F11" s="3">
         <v>3</v>
@@ -1556,150 +1584,150 @@
         <v>70</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>61</v>
+        <v>258</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>71</v>
+        <v>259</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>72</v>
+        <v>260</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>234</v>
+        <v>229</v>
       </c>
       <c r="F12" s="3">
         <v>1</v>
       </c>
       <c r="G12" s="4" t="s">
-        <v>73</v>
-      </c>
-      <c r="H12" s="6" t="s">
-        <v>74</v>
+        <v>57</v>
+      </c>
+      <c r="H12" s="2" t="s">
+        <v>259</v>
       </c>
       <c r="I12" s="2" t="s">
         <v>15</v>
       </c>
       <c r="J12" s="5" t="s">
-        <v>75</v>
+        <v>259</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="B13" s="2" t="s">
         <v>61</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>254</v>
+        <v>249</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>253</v>
+        <v>248</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>234</v>
+        <v>229</v>
       </c>
       <c r="F13" s="3">
         <v>1</v>
       </c>
       <c r="G13" s="4" t="s">
-        <v>252</v>
+        <v>247</v>
       </c>
       <c r="H13" s="6" t="s">
-        <v>251</v>
+        <v>246</v>
       </c>
       <c r="I13" s="2" t="s">
         <v>15</v>
       </c>
       <c r="J13" s="5" t="s">
-        <v>250</v>
+        <v>245</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>234</v>
+        <v>229</v>
       </c>
       <c r="F14" s="3">
         <v>6</v>
       </c>
       <c r="G14" s="4" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="H14" s="6" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="I14" s="2" t="s">
         <v>15</v>
       </c>
       <c r="J14" s="5" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
-        <v>236</v>
+        <v>231</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>235</v>
+        <v>230</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>235</v>
+        <v>230</v>
       </c>
       <c r="D15" s="2" t="s">
         <v>12</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>234</v>
+        <v>229</v>
       </c>
       <c r="F15" s="3">
         <v>12</v>
       </c>
       <c r="G15" s="4" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="H15" s="5" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="I15" s="2" t="s">
         <v>15</v>
       </c>
       <c r="J15" s="5" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>238</v>
+        <v>233</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>234</v>
+        <v>229</v>
       </c>
       <c r="F16" s="3">
         <v>6</v>
       </c>
       <c r="G16" s="4" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="H16" s="5">
         <v>1751264</v>
@@ -1708,21 +1736,21 @@
         <v>15</v>
       </c>
       <c r="J16" s="5" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>234</v>
+        <v>229</v>
       </c>
       <c r="F17" s="3">
         <v>11</v>
@@ -1731,36 +1759,36 @@
         <v>13</v>
       </c>
       <c r="H17" s="6" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="I17" s="2" t="s">
         <v>15</v>
       </c>
       <c r="J17" s="5" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="D18" s="2" t="s">
         <v>12</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>234</v>
+        <v>229</v>
       </c>
       <c r="F18" s="3">
         <v>6</v>
       </c>
       <c r="G18" s="4" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="H18" s="5">
         <v>416131160803</v>
@@ -1769,24 +1797,24 @@
         <v>15</v>
       </c>
       <c r="J18" s="5" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
       <c r="D19" s="2" t="s">
         <v>12</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>234</v>
+        <v>229</v>
       </c>
       <c r="F19" s="3">
         <v>2</v>
@@ -1795,30 +1823,30 @@
         <v>13</v>
       </c>
       <c r="H19" s="6" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="I19" s="2" t="s">
         <v>15</v>
       </c>
       <c r="J19" s="5" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="D20" s="2" t="s">
         <v>12</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>234</v>
+        <v>229</v>
       </c>
       <c r="F20" s="3">
         <v>1</v>
@@ -1827,68 +1855,68 @@
         <v>13</v>
       </c>
       <c r="H20" s="6" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="I20" s="2" t="s">
         <v>15</v>
       </c>
       <c r="J20" s="5" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>239</v>
+        <v>234</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>113</v>
+        <v>108</v>
       </c>
       <c r="D21" s="2" t="s">
         <v>12</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>234</v>
+        <v>229</v>
       </c>
       <c r="F21" s="3">
         <v>2</v>
       </c>
       <c r="G21" s="4" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
       <c r="H21" s="5" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="I21" s="2" t="s">
         <v>15</v>
       </c>
       <c r="J21" s="5" t="s">
-        <v>116</v>
+        <v>111</v>
       </c>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
-        <v>117</v>
+        <v>112</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>118</v>
+        <v>113</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>118</v>
+        <v>113</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>238</v>
+        <v>233</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>234</v>
+        <v>229</v>
       </c>
       <c r="F22" s="3">
         <v>5</v>
       </c>
       <c r="G22" s="4" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="H22" s="5">
         <v>1751248</v>
@@ -1897,30 +1925,30 @@
         <v>15</v>
       </c>
       <c r="J22" s="5" t="s">
-        <v>119</v>
+        <v>114</v>
       </c>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A23" s="2" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>121</v>
+        <v>116</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>121</v>
+        <v>116</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>238</v>
+        <v>233</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>234</v>
+        <v>229</v>
       </c>
       <c r="F23" s="3">
         <v>3</v>
       </c>
       <c r="G23" s="4" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="H23" s="5">
         <v>1935776</v>
@@ -1929,18 +1957,18 @@
         <v>15</v>
       </c>
       <c r="J23" s="5" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A24" s="2" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>124</v>
+        <v>119</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>125</v>
+        <v>120</v>
       </c>
       <c r="D24" s="2" t="s">
         <v>12</v>
@@ -1950,27 +1978,27 @@
         <v>1</v>
       </c>
       <c r="G24" s="4" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
       <c r="H24" s="6" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="I24" s="2" t="s">
         <v>15</v>
       </c>
       <c r="J24" s="5" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A25" s="2" t="s">
-        <v>129</v>
+        <v>124</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>130</v>
+        <v>125</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>131</v>
+        <v>126</v>
       </c>
       <c r="D25" s="2" t="s">
         <v>12</v>
@@ -1980,27 +2008,27 @@
         <v>1</v>
       </c>
       <c r="G25" s="4" t="s">
+        <v>121</v>
+      </c>
+      <c r="H25" s="6" t="s">
         <v>126</v>
       </c>
-      <c r="H25" s="6" t="s">
-        <v>131</v>
-      </c>
       <c r="I25" s="2" t="s">
         <v>15</v>
       </c>
       <c r="J25" s="5" t="s">
-        <v>132</v>
+        <v>127</v>
       </c>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A26" s="2" t="s">
-        <v>133</v>
+        <v>128</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>247</v>
+        <v>242</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>246</v>
+        <v>241</v>
       </c>
       <c r="D26" s="2" t="s">
         <v>12</v>
@@ -2010,65 +2038,65 @@
         <v>1</v>
       </c>
       <c r="G26" s="4" t="s">
-        <v>248</v>
+        <v>243</v>
       </c>
       <c r="H26" s="6" t="s">
-        <v>246</v>
+        <v>241</v>
       </c>
       <c r="I26" s="2" t="s">
         <v>15</v>
       </c>
       <c r="J26" s="5" t="s">
-        <v>249</v>
+        <v>244</v>
       </c>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A27" s="2" t="s">
-        <v>134</v>
+        <v>129</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>135</v>
+        <v>130</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>136</v>
+        <v>131</v>
       </c>
       <c r="D27" s="2" t="s">
         <v>12</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>234</v>
+        <v>229</v>
       </c>
       <c r="F27" s="3">
         <v>1</v>
       </c>
       <c r="G27" s="4" t="s">
-        <v>137</v>
+        <v>132</v>
       </c>
       <c r="H27" s="6" t="s">
-        <v>138</v>
+        <v>133</v>
       </c>
       <c r="I27" s="2" t="s">
         <v>15</v>
       </c>
       <c r="J27" s="5" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A28" s="2" t="s">
-        <v>140</v>
+        <v>135</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>141</v>
+        <v>136</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>142</v>
+        <v>137</v>
       </c>
       <c r="D28" s="2" t="s">
         <v>12</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>234</v>
+        <v>229</v>
       </c>
       <c r="F28" s="3">
         <v>2</v>
@@ -2077,62 +2105,62 @@
         <v>13</v>
       </c>
       <c r="H28" s="6" t="s">
-        <v>143</v>
+        <v>138</v>
       </c>
       <c r="I28" s="2" t="s">
         <v>15</v>
       </c>
       <c r="J28" s="5" t="s">
-        <v>144</v>
+        <v>139</v>
       </c>
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A29" s="2" t="s">
-        <v>145</v>
+        <v>140</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>240</v>
+        <v>235</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>237</v>
+        <v>232</v>
       </c>
       <c r="D29" s="2" t="s">
         <v>12</v>
       </c>
       <c r="E29" s="2" t="s">
-        <v>234</v>
+        <v>229</v>
       </c>
       <c r="F29" s="3">
         <v>1</v>
       </c>
       <c r="G29" s="4" t="s">
-        <v>146</v>
+        <v>141</v>
       </c>
       <c r="H29" s="5" t="s">
-        <v>147</v>
+        <v>142</v>
       </c>
       <c r="I29" s="2" t="s">
         <v>15</v>
       </c>
       <c r="J29" s="5" t="s">
-        <v>148</v>
+        <v>143</v>
       </c>
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A30" s="2" t="s">
-        <v>149</v>
+        <v>144</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
       <c r="D30" s="2" t="s">
         <v>12</v>
       </c>
       <c r="E30" s="2" t="s">
-        <v>234</v>
+        <v>229</v>
       </c>
       <c r="F30" s="3">
         <v>2</v>
@@ -2141,62 +2169,62 @@
         <v>13</v>
       </c>
       <c r="H30" s="6" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="I30" s="2" t="s">
         <v>15</v>
       </c>
       <c r="J30" s="5" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A31" s="2" t="s">
-        <v>150</v>
+        <v>145</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>262</v>
+        <v>257</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>152</v>
+        <v>147</v>
       </c>
       <c r="E31" s="2" t="s">
-        <v>234</v>
+        <v>229</v>
       </c>
       <c r="F31" s="3">
         <v>1</v>
       </c>
       <c r="G31" s="4" t="s">
-        <v>153</v>
+        <v>148</v>
       </c>
       <c r="H31" s="6" t="s">
-        <v>154</v>
+        <v>149</v>
       </c>
       <c r="I31" s="2" t="s">
         <v>15</v>
       </c>
       <c r="J31" s="5" t="s">
-        <v>155</v>
+        <v>150</v>
       </c>
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A32" s="2" t="s">
-        <v>156</v>
+        <v>151</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>261</v>
+        <v>256</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>257</v>
+        <v>252</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>157</v>
+        <v>152</v>
       </c>
       <c r="E32" s="2" t="s">
-        <v>234</v>
+        <v>229</v>
       </c>
       <c r="F32" s="3">
         <v>1</v>
@@ -2205,30 +2233,30 @@
         <v>67</v>
       </c>
       <c r="H32" s="6" t="s">
-        <v>256</v>
+        <v>251</v>
       </c>
       <c r="I32" s="2" t="s">
         <v>15</v>
       </c>
       <c r="J32" s="5" t="s">
-        <v>255</v>
+        <v>250</v>
       </c>
     </row>
     <row r="33" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A33" s="2" t="s">
-        <v>158</v>
+        <v>153</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>261</v>
+        <v>256</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>260</v>
+        <v>255</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>159</v>
+        <v>154</v>
       </c>
       <c r="E33" s="2" t="s">
-        <v>234</v>
+        <v>229</v>
       </c>
       <c r="F33" s="3">
         <v>1</v>
@@ -2237,88 +2265,88 @@
         <v>67</v>
       </c>
       <c r="H33" s="6" t="s">
-        <v>259</v>
+        <v>254</v>
       </c>
       <c r="I33" s="2" t="s">
         <v>15</v>
       </c>
       <c r="J33" s="5" t="s">
-        <v>258</v>
+        <v>253</v>
       </c>
     </row>
     <row r="34" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A34" s="2" t="s">
-        <v>160</v>
+        <v>155</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>161</v>
+        <v>156</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>162</v>
+        <v>157</v>
       </c>
       <c r="D34" s="2" t="s">
         <v>12</v>
       </c>
       <c r="E34" s="2" t="s">
-        <v>234</v>
+        <v>229</v>
       </c>
       <c r="F34" s="3">
         <v>7</v>
       </c>
       <c r="G34" s="4" t="s">
-        <v>163</v>
+        <v>158</v>
       </c>
       <c r="H34" s="6" t="s">
-        <v>164</v>
+        <v>159</v>
       </c>
       <c r="I34" s="2" t="s">
         <v>15</v>
       </c>
       <c r="J34" s="5" t="s">
-        <v>165</v>
+        <v>160</v>
       </c>
     </row>
     <row r="35" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A35" s="2" t="s">
-        <v>166</v>
+        <v>161</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>161</v>
+        <v>156</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
       <c r="D35" s="2" t="s">
         <v>12</v>
       </c>
       <c r="E35" s="2" t="s">
-        <v>234</v>
+        <v>229</v>
       </c>
       <c r="F35" s="3">
         <v>3</v>
       </c>
       <c r="G35" s="4" t="s">
+        <v>158</v>
+      </c>
+      <c r="H35" s="6" t="s">
         <v>163</v>
       </c>
-      <c r="H35" s="6" t="s">
-        <v>168</v>
-      </c>
       <c r="I35" s="2" t="s">
         <v>15</v>
       </c>
       <c r="J35" s="5" t="s">
-        <v>169</v>
+        <v>164</v>
       </c>
     </row>
     <row r="36" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A36" s="2" t="s">
-        <v>170</v>
+        <v>165</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>241</v>
+        <v>236</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>171</v>
+        <v>166</v>
       </c>
       <c r="D36" s="2" t="s">
         <v>12</v>
@@ -2328,33 +2356,33 @@
         <v>6</v>
       </c>
       <c r="G36" s="4" t="s">
-        <v>172</v>
+        <v>167</v>
       </c>
       <c r="H36" s="5" t="s">
-        <v>173</v>
+        <v>168</v>
       </c>
       <c r="I36" s="2" t="s">
         <v>15</v>
       </c>
       <c r="J36" s="5" t="s">
-        <v>174</v>
+        <v>169</v>
       </c>
     </row>
     <row r="37" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A37" s="2" t="s">
-        <v>175</v>
+        <v>170</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>176</v>
+        <v>171</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>177</v>
+        <v>172</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>178</v>
+        <v>173</v>
       </c>
       <c r="E37" s="2" t="s">
-        <v>234</v>
+        <v>229</v>
       </c>
       <c r="F37" s="3">
         <v>2</v>
@@ -2363,30 +2391,30 @@
         <v>38</v>
       </c>
       <c r="H37" s="6" t="s">
-        <v>179</v>
+        <v>174</v>
       </c>
       <c r="I37" s="2" t="s">
         <v>15</v>
       </c>
       <c r="J37" s="5" t="s">
-        <v>180</v>
+        <v>175</v>
       </c>
     </row>
     <row r="38" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A38" s="2" t="s">
-        <v>181</v>
+        <v>176</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>176</v>
+        <v>171</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>182</v>
+        <v>177</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>183</v>
+        <v>178</v>
       </c>
       <c r="E38" s="2" t="s">
-        <v>234</v>
+        <v>229</v>
       </c>
       <c r="F38" s="3">
         <v>11</v>
@@ -2395,30 +2423,30 @@
         <v>38</v>
       </c>
       <c r="H38" s="6" t="s">
-        <v>184</v>
+        <v>179</v>
       </c>
       <c r="I38" s="2" t="s">
         <v>15</v>
       </c>
       <c r="J38" s="5" t="s">
-        <v>185</v>
+        <v>180</v>
       </c>
     </row>
     <row r="39" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A39" s="2" t="s">
-        <v>186</v>
+        <v>181</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>176</v>
+        <v>171</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>187</v>
+        <v>182</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>188</v>
+        <v>183</v>
       </c>
       <c r="E39" s="2" t="s">
-        <v>234</v>
+        <v>229</v>
       </c>
       <c r="F39" s="3">
         <v>14</v>
@@ -2427,30 +2455,30 @@
         <v>38</v>
       </c>
       <c r="H39" s="6" t="s">
-        <v>189</v>
+        <v>184</v>
       </c>
       <c r="I39" s="2" t="s">
         <v>15</v>
       </c>
       <c r="J39" s="5" t="s">
-        <v>190</v>
+        <v>185</v>
       </c>
     </row>
     <row r="40" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A40" s="2" t="s">
-        <v>191</v>
+        <v>186</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>176</v>
+        <v>171</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>242</v>
+        <v>237</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>243</v>
+        <v>238</v>
       </c>
       <c r="E40" s="2" t="s">
-        <v>234</v>
+        <v>229</v>
       </c>
       <c r="F40" s="3">
         <v>1</v>
@@ -2459,30 +2487,30 @@
         <v>38</v>
       </c>
       <c r="H40" s="6" t="s">
-        <v>244</v>
+        <v>239</v>
       </c>
       <c r="I40" s="2" t="s">
         <v>15</v>
       </c>
       <c r="J40" s="5" t="s">
-        <v>245</v>
+        <v>240</v>
       </c>
     </row>
     <row r="41" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A41" s="2" t="s">
-        <v>192</v>
+        <v>187</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>176</v>
+        <v>171</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>193</v>
+        <v>188</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>194</v>
+        <v>189</v>
       </c>
       <c r="E41" s="2" t="s">
-        <v>234</v>
+        <v>229</v>
       </c>
       <c r="F41" s="3">
         <v>2</v>
@@ -2491,30 +2519,30 @@
         <v>38</v>
       </c>
       <c r="H41" s="6" t="s">
-        <v>195</v>
+        <v>190</v>
       </c>
       <c r="I41" s="2" t="s">
         <v>15</v>
       </c>
       <c r="J41" s="5" t="s">
-        <v>196</v>
+        <v>191</v>
       </c>
     </row>
     <row r="42" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A42" s="2" t="s">
-        <v>197</v>
+        <v>192</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>176</v>
+        <v>171</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>198</v>
+        <v>193</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>199</v>
+        <v>194</v>
       </c>
       <c r="E42" s="2" t="s">
-        <v>234</v>
+        <v>229</v>
       </c>
       <c r="F42" s="3">
         <v>12</v>
@@ -2523,30 +2551,30 @@
         <v>38</v>
       </c>
       <c r="H42" s="6" t="s">
-        <v>200</v>
+        <v>195</v>
       </c>
       <c r="I42" s="2" t="s">
         <v>15</v>
       </c>
       <c r="J42" s="5" t="s">
-        <v>201</v>
+        <v>196</v>
       </c>
     </row>
     <row r="43" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A43" s="2" t="s">
-        <v>202</v>
+        <v>197</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>176</v>
+        <v>171</v>
       </c>
       <c r="C43" s="2" t="s">
-        <v>203</v>
+        <v>198</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>204</v>
+        <v>199</v>
       </c>
       <c r="E43" s="2" t="s">
-        <v>234</v>
+        <v>229</v>
       </c>
       <c r="F43" s="3">
         <v>6</v>
@@ -2555,30 +2583,30 @@
         <v>38</v>
       </c>
       <c r="H43" s="6" t="s">
-        <v>205</v>
+        <v>200</v>
       </c>
       <c r="I43" s="2" t="s">
         <v>15</v>
       </c>
       <c r="J43" s="5" t="s">
-        <v>206</v>
+        <v>201</v>
       </c>
     </row>
     <row r="44" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A44" s="2" t="s">
-        <v>207</v>
+        <v>202</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>176</v>
+        <v>171</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>208</v>
+        <v>203</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>209</v>
+        <v>204</v>
       </c>
       <c r="E44" s="2" t="s">
-        <v>234</v>
+        <v>229</v>
       </c>
       <c r="F44" s="3">
         <v>5</v>
@@ -2587,30 +2615,30 @@
         <v>38</v>
       </c>
       <c r="H44" s="6" t="s">
-        <v>210</v>
+        <v>205</v>
       </c>
       <c r="I44" s="2" t="s">
         <v>15</v>
       </c>
       <c r="J44" s="5" t="s">
-        <v>211</v>
+        <v>206</v>
       </c>
     </row>
     <row r="45" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A45" s="2" t="s">
-        <v>212</v>
+        <v>207</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>176</v>
+        <v>171</v>
       </c>
       <c r="C45" s="2" t="s">
-        <v>213</v>
+        <v>208</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>214</v>
+        <v>209</v>
       </c>
       <c r="E45" s="2" t="s">
-        <v>234</v>
+        <v>229</v>
       </c>
       <c r="F45" s="3">
         <v>1</v>
@@ -2619,94 +2647,94 @@
         <v>38</v>
       </c>
       <c r="H45" s="6" t="s">
-        <v>215</v>
+        <v>210</v>
       </c>
       <c r="I45" s="2" t="s">
         <v>15</v>
       </c>
       <c r="J45" s="5" t="s">
-        <v>216</v>
+        <v>211</v>
       </c>
     </row>
     <row r="46" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A46" s="2" t="s">
-        <v>217</v>
+        <v>212</v>
       </c>
       <c r="B46" s="2" t="s">
         <v>12</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>218</v>
+        <v>213</v>
       </c>
       <c r="D46" s="2" t="s">
         <v>12</v>
       </c>
       <c r="E46" s="2" t="s">
-        <v>234</v>
+        <v>229</v>
       </c>
       <c r="F46" s="3">
         <v>1</v>
       </c>
       <c r="G46" s="4" t="s">
-        <v>219</v>
+        <v>214</v>
       </c>
       <c r="H46" s="5" t="s">
-        <v>220</v>
+        <v>215</v>
       </c>
       <c r="I46" s="2" t="s">
         <v>15</v>
       </c>
       <c r="J46" s="5" t="s">
-        <v>221</v>
+        <v>216</v>
       </c>
     </row>
     <row r="47" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A47" s="2" t="s">
-        <v>222</v>
+        <v>217</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>223</v>
+        <v>218</v>
       </c>
       <c r="C47" s="2" t="s">
-        <v>224</v>
+        <v>219</v>
       </c>
       <c r="D47" s="2" t="s">
         <v>12</v>
       </c>
       <c r="E47" s="2" t="s">
-        <v>234</v>
+        <v>229</v>
       </c>
       <c r="F47" s="3">
         <v>2</v>
       </c>
       <c r="G47" s="4" t="s">
-        <v>225</v>
+        <v>220</v>
       </c>
       <c r="H47" s="6" t="s">
-        <v>226</v>
+        <v>221</v>
       </c>
       <c r="I47" s="2" t="s">
         <v>15</v>
       </c>
       <c r="J47" s="5" t="s">
-        <v>227</v>
+        <v>222</v>
       </c>
     </row>
     <row r="48" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A48" s="2" t="s">
-        <v>228</v>
+        <v>223</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>229</v>
+        <v>224</v>
       </c>
       <c r="C48" s="2" t="s">
-        <v>230</v>
+        <v>225</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>231</v>
+        <v>226</v>
       </c>
       <c r="E48" s="2" t="s">
-        <v>234</v>
+        <v>229</v>
       </c>
       <c r="F48" s="3">
         <v>2</v>
@@ -2715,13 +2743,13 @@
         <v>67</v>
       </c>
       <c r="H48" s="6" t="s">
-        <v>231</v>
+        <v>226</v>
       </c>
       <c r="I48" s="2" t="s">
         <v>15</v>
       </c>
       <c r="J48" s="5" t="s">
-        <v>232</v>
+        <v>227</v>
       </c>
     </row>
   </sheetData>
@@ -2756,106 +2784,104 @@
     <hyperlink ref="G11" r:id="rId28" tooltip="Component"/>
     <hyperlink ref="H11" r:id="rId29" tooltip="Manufacturer"/>
     <hyperlink ref="J11" r:id="rId30" tooltip="Supplier"/>
-    <hyperlink ref="G12" r:id="rId31" tooltip="Component"/>
-    <hyperlink ref="H12" r:id="rId32" tooltip="Manufacturer"/>
-    <hyperlink ref="J12" r:id="rId33" tooltip="Supplier"/>
-    <hyperlink ref="G14" r:id="rId34" tooltip="Component"/>
-    <hyperlink ref="H14" r:id="rId35" tooltip="Manufacturer"/>
-    <hyperlink ref="J14" r:id="rId36" tooltip="Supplier"/>
-    <hyperlink ref="G15" r:id="rId37" tooltip="Component"/>
-    <hyperlink ref="H15" r:id="rId38" tooltip="Manufacturer"/>
-    <hyperlink ref="J15" r:id="rId39" tooltip="Supplier"/>
-    <hyperlink ref="G16" r:id="rId40" tooltip="Component"/>
-    <hyperlink ref="H16" r:id="rId41" tooltip="Manufacturer" display="1751264"/>
-    <hyperlink ref="J16" r:id="rId42" tooltip="Supplier"/>
-    <hyperlink ref="G17" r:id="rId43" tooltip="Component"/>
-    <hyperlink ref="H17" r:id="rId44" tooltip="Manufacturer"/>
-    <hyperlink ref="J17" r:id="rId45" tooltip="Supplier"/>
-    <hyperlink ref="G18" r:id="rId46" tooltip="Component"/>
-    <hyperlink ref="H18" r:id="rId47" tooltip="Manufacturer" display="416131160803"/>
-    <hyperlink ref="J18" r:id="rId48" tooltip="Supplier"/>
-    <hyperlink ref="G19" r:id="rId49" tooltip="Component"/>
-    <hyperlink ref="H19" r:id="rId50" tooltip="Manufacturer"/>
-    <hyperlink ref="J19" r:id="rId51" tooltip="Supplier"/>
-    <hyperlink ref="G20" r:id="rId52" tooltip="Component"/>
-    <hyperlink ref="H20" r:id="rId53" tooltip="Manufacturer"/>
-    <hyperlink ref="J20" r:id="rId54" tooltip="Supplier"/>
-    <hyperlink ref="G21" r:id="rId55" tooltip="Component"/>
-    <hyperlink ref="H21" r:id="rId56" tooltip="Manufacturer"/>
-    <hyperlink ref="J21" r:id="rId57" tooltip="Supplier"/>
-    <hyperlink ref="G22" r:id="rId58" tooltip="Component"/>
-    <hyperlink ref="H22" r:id="rId59" tooltip="Manufacturer" display="1751248"/>
-    <hyperlink ref="J22" r:id="rId60" tooltip="Supplier"/>
-    <hyperlink ref="G23" r:id="rId61" tooltip="Component"/>
-    <hyperlink ref="H23" r:id="rId62" tooltip="Manufacturer" display="1935776"/>
-    <hyperlink ref="J23" r:id="rId63" tooltip="Supplier"/>
-    <hyperlink ref="G24" r:id="rId64" tooltip="Component"/>
-    <hyperlink ref="H24" r:id="rId65" tooltip="Manufacturer"/>
-    <hyperlink ref="J24" r:id="rId66" tooltip="Supplier"/>
-    <hyperlink ref="G25" r:id="rId67" tooltip="Component"/>
-    <hyperlink ref="H25" r:id="rId68" tooltip="Manufacturer"/>
-    <hyperlink ref="J25" r:id="rId69" tooltip="Supplier"/>
-    <hyperlink ref="G27" r:id="rId70" tooltip="Component"/>
-    <hyperlink ref="H27" r:id="rId71" tooltip="Manufacturer"/>
-    <hyperlink ref="J27" r:id="rId72" tooltip="Supplier"/>
-    <hyperlink ref="G28" r:id="rId73" tooltip="Component"/>
-    <hyperlink ref="H28" r:id="rId74" tooltip="Manufacturer"/>
-    <hyperlink ref="J28" r:id="rId75" tooltip="Supplier"/>
-    <hyperlink ref="G29" r:id="rId76" tooltip="Component"/>
-    <hyperlink ref="H29" r:id="rId77" tooltip="Manufacturer"/>
-    <hyperlink ref="J29" r:id="rId78" tooltip="Supplier"/>
-    <hyperlink ref="G30" r:id="rId79" tooltip="Component"/>
-    <hyperlink ref="H30" r:id="rId80" tooltip="Manufacturer"/>
-    <hyperlink ref="J30" r:id="rId81" tooltip="Supplier"/>
-    <hyperlink ref="G31" r:id="rId82" tooltip="Component"/>
-    <hyperlink ref="H31" r:id="rId83" tooltip="Manufacturer"/>
-    <hyperlink ref="J31" r:id="rId84" tooltip="Supplier"/>
-    <hyperlink ref="G32" r:id="rId85" tooltip="Component" display="COILCRAFT"/>
-    <hyperlink ref="G34" r:id="rId86" tooltip="Component"/>
-    <hyperlink ref="H34" r:id="rId87" tooltip="Manufacturer"/>
-    <hyperlink ref="J34" r:id="rId88" tooltip="Supplier"/>
-    <hyperlink ref="G35" r:id="rId89" tooltip="Component"/>
-    <hyperlink ref="H35" r:id="rId90" tooltip="Manufacturer"/>
-    <hyperlink ref="J35" r:id="rId91" tooltip="Supplier"/>
-    <hyperlink ref="G36" r:id="rId92" tooltip="Component"/>
-    <hyperlink ref="H36" r:id="rId93" tooltip="Manufacturer"/>
-    <hyperlink ref="J36" r:id="rId94" tooltip="Supplier"/>
-    <hyperlink ref="G37" r:id="rId95" tooltip="Component"/>
-    <hyperlink ref="H37" r:id="rId96" tooltip="Manufacturer"/>
-    <hyperlink ref="J37" r:id="rId97" tooltip="Supplier"/>
-    <hyperlink ref="G38" r:id="rId98" tooltip="Component"/>
-    <hyperlink ref="H38" r:id="rId99" tooltip="Manufacturer"/>
-    <hyperlink ref="J38" r:id="rId100" tooltip="Supplier"/>
-    <hyperlink ref="G39" r:id="rId101" tooltip="Component"/>
-    <hyperlink ref="H39" r:id="rId102" tooltip="Manufacturer"/>
-    <hyperlink ref="J39" r:id="rId103" tooltip="Supplier"/>
-    <hyperlink ref="G40" r:id="rId104" tooltip="Component"/>
-    <hyperlink ref="G41" r:id="rId105" tooltip="Component"/>
-    <hyperlink ref="H41" r:id="rId106" tooltip="Manufacturer"/>
-    <hyperlink ref="J41" r:id="rId107" tooltip="Supplier"/>
-    <hyperlink ref="G42" r:id="rId108" tooltip="Component"/>
-    <hyperlink ref="H42" r:id="rId109" tooltip="Manufacturer"/>
-    <hyperlink ref="J42" r:id="rId110" tooltip="Supplier"/>
-    <hyperlink ref="G43" r:id="rId111" tooltip="Component"/>
-    <hyperlink ref="H43" r:id="rId112" tooltip="Manufacturer"/>
-    <hyperlink ref="J43" r:id="rId113" tooltip="Supplier"/>
-    <hyperlink ref="G44" r:id="rId114" tooltip="Component"/>
-    <hyperlink ref="H44" r:id="rId115" tooltip="Manufacturer"/>
-    <hyperlink ref="J44" r:id="rId116" tooltip="Supplier"/>
-    <hyperlink ref="G45" r:id="rId117" tooltip="Component"/>
-    <hyperlink ref="H45" r:id="rId118" tooltip="Manufacturer"/>
-    <hyperlink ref="J45" r:id="rId119" tooltip="Supplier"/>
-    <hyperlink ref="G46" r:id="rId120" tooltip="Component"/>
-    <hyperlink ref="H46" r:id="rId121" tooltip="Manufacturer"/>
-    <hyperlink ref="J46" r:id="rId122" tooltip="Supplier"/>
-    <hyperlink ref="G47" r:id="rId123" tooltip="Component"/>
-    <hyperlink ref="H47" r:id="rId124" tooltip="Manufacturer"/>
-    <hyperlink ref="J47" r:id="rId125" tooltip="Supplier"/>
-    <hyperlink ref="G48" r:id="rId126" tooltip="Component"/>
-    <hyperlink ref="H48" r:id="rId127" tooltip="Manufacturer"/>
-    <hyperlink ref="J48" r:id="rId128" tooltip="Supplier"/>
+    <hyperlink ref="G14" r:id="rId31" tooltip="Component"/>
+    <hyperlink ref="H14" r:id="rId32" tooltip="Manufacturer"/>
+    <hyperlink ref="J14" r:id="rId33" tooltip="Supplier"/>
+    <hyperlink ref="G15" r:id="rId34" tooltip="Component"/>
+    <hyperlink ref="H15" r:id="rId35" tooltip="Manufacturer"/>
+    <hyperlink ref="J15" r:id="rId36" tooltip="Supplier"/>
+    <hyperlink ref="G16" r:id="rId37" tooltip="Component"/>
+    <hyperlink ref="H16" r:id="rId38" tooltip="Manufacturer" display="1751264"/>
+    <hyperlink ref="J16" r:id="rId39" tooltip="Supplier"/>
+    <hyperlink ref="G17" r:id="rId40" tooltip="Component"/>
+    <hyperlink ref="H17" r:id="rId41" tooltip="Manufacturer"/>
+    <hyperlink ref="J17" r:id="rId42" tooltip="Supplier"/>
+    <hyperlink ref="G18" r:id="rId43" tooltip="Component"/>
+    <hyperlink ref="H18" r:id="rId44" tooltip="Manufacturer" display="416131160803"/>
+    <hyperlink ref="J18" r:id="rId45" tooltip="Supplier"/>
+    <hyperlink ref="G19" r:id="rId46" tooltip="Component"/>
+    <hyperlink ref="H19" r:id="rId47" tooltip="Manufacturer"/>
+    <hyperlink ref="J19" r:id="rId48" tooltip="Supplier"/>
+    <hyperlink ref="G20" r:id="rId49" tooltip="Component"/>
+    <hyperlink ref="H20" r:id="rId50" tooltip="Manufacturer"/>
+    <hyperlink ref="J20" r:id="rId51" tooltip="Supplier"/>
+    <hyperlink ref="G21" r:id="rId52" tooltip="Component"/>
+    <hyperlink ref="H21" r:id="rId53" tooltip="Manufacturer"/>
+    <hyperlink ref="J21" r:id="rId54" tooltip="Supplier"/>
+    <hyperlink ref="G22" r:id="rId55" tooltip="Component"/>
+    <hyperlink ref="H22" r:id="rId56" tooltip="Manufacturer" display="1751248"/>
+    <hyperlink ref="J22" r:id="rId57" tooltip="Supplier"/>
+    <hyperlink ref="G23" r:id="rId58" tooltip="Component"/>
+    <hyperlink ref="H23" r:id="rId59" tooltip="Manufacturer" display="1935776"/>
+    <hyperlink ref="J23" r:id="rId60" tooltip="Supplier"/>
+    <hyperlink ref="G24" r:id="rId61" tooltip="Component"/>
+    <hyperlink ref="H24" r:id="rId62" tooltip="Manufacturer"/>
+    <hyperlink ref="J24" r:id="rId63" tooltip="Supplier"/>
+    <hyperlink ref="G25" r:id="rId64" tooltip="Component"/>
+    <hyperlink ref="H25" r:id="rId65" tooltip="Manufacturer"/>
+    <hyperlink ref="J25" r:id="rId66" tooltip="Supplier"/>
+    <hyperlink ref="G27" r:id="rId67" tooltip="Component"/>
+    <hyperlink ref="H27" r:id="rId68" tooltip="Manufacturer"/>
+    <hyperlink ref="J27" r:id="rId69" tooltip="Supplier"/>
+    <hyperlink ref="G28" r:id="rId70" tooltip="Component"/>
+    <hyperlink ref="H28" r:id="rId71" tooltip="Manufacturer"/>
+    <hyperlink ref="J28" r:id="rId72" tooltip="Supplier"/>
+    <hyperlink ref="G29" r:id="rId73" tooltip="Component"/>
+    <hyperlink ref="H29" r:id="rId74" tooltip="Manufacturer"/>
+    <hyperlink ref="J29" r:id="rId75" tooltip="Supplier"/>
+    <hyperlink ref="G30" r:id="rId76" tooltip="Component"/>
+    <hyperlink ref="H30" r:id="rId77" tooltip="Manufacturer"/>
+    <hyperlink ref="J30" r:id="rId78" tooltip="Supplier"/>
+    <hyperlink ref="G31" r:id="rId79" tooltip="Component"/>
+    <hyperlink ref="H31" r:id="rId80" tooltip="Manufacturer"/>
+    <hyperlink ref="J31" r:id="rId81" tooltip="Supplier"/>
+    <hyperlink ref="G32" r:id="rId82" tooltip="Component" display="COILCRAFT"/>
+    <hyperlink ref="G34" r:id="rId83" tooltip="Component"/>
+    <hyperlink ref="H34" r:id="rId84" tooltip="Manufacturer"/>
+    <hyperlink ref="J34" r:id="rId85" tooltip="Supplier"/>
+    <hyperlink ref="G35" r:id="rId86" tooltip="Component"/>
+    <hyperlink ref="H35" r:id="rId87" tooltip="Manufacturer"/>
+    <hyperlink ref="J35" r:id="rId88" tooltip="Supplier"/>
+    <hyperlink ref="G36" r:id="rId89" tooltip="Component"/>
+    <hyperlink ref="H36" r:id="rId90" tooltip="Manufacturer"/>
+    <hyperlink ref="J36" r:id="rId91" tooltip="Supplier"/>
+    <hyperlink ref="G37" r:id="rId92" tooltip="Component"/>
+    <hyperlink ref="H37" r:id="rId93" tooltip="Manufacturer"/>
+    <hyperlink ref="J37" r:id="rId94" tooltip="Supplier"/>
+    <hyperlink ref="G38" r:id="rId95" tooltip="Component"/>
+    <hyperlink ref="H38" r:id="rId96" tooltip="Manufacturer"/>
+    <hyperlink ref="J38" r:id="rId97" tooltip="Supplier"/>
+    <hyperlink ref="G39" r:id="rId98" tooltip="Component"/>
+    <hyperlink ref="H39" r:id="rId99" tooltip="Manufacturer"/>
+    <hyperlink ref="J39" r:id="rId100" tooltip="Supplier"/>
+    <hyperlink ref="G40" r:id="rId101" tooltip="Component"/>
+    <hyperlink ref="G41" r:id="rId102" tooltip="Component"/>
+    <hyperlink ref="H41" r:id="rId103" tooltip="Manufacturer"/>
+    <hyperlink ref="J41" r:id="rId104" tooltip="Supplier"/>
+    <hyperlink ref="G42" r:id="rId105" tooltip="Component"/>
+    <hyperlink ref="H42" r:id="rId106" tooltip="Manufacturer"/>
+    <hyperlink ref="J42" r:id="rId107" tooltip="Supplier"/>
+    <hyperlink ref="G43" r:id="rId108" tooltip="Component"/>
+    <hyperlink ref="H43" r:id="rId109" tooltip="Manufacturer"/>
+    <hyperlink ref="J43" r:id="rId110" tooltip="Supplier"/>
+    <hyperlink ref="G44" r:id="rId111" tooltip="Component"/>
+    <hyperlink ref="H44" r:id="rId112" tooltip="Manufacturer"/>
+    <hyperlink ref="J44" r:id="rId113" tooltip="Supplier"/>
+    <hyperlink ref="G45" r:id="rId114" tooltip="Component"/>
+    <hyperlink ref="H45" r:id="rId115" tooltip="Manufacturer"/>
+    <hyperlink ref="J45" r:id="rId116" tooltip="Supplier"/>
+    <hyperlink ref="G46" r:id="rId117" tooltip="Component"/>
+    <hyperlink ref="H46" r:id="rId118" tooltip="Manufacturer"/>
+    <hyperlink ref="J46" r:id="rId119" tooltip="Supplier"/>
+    <hyperlink ref="G47" r:id="rId120" tooltip="Component"/>
+    <hyperlink ref="H47" r:id="rId121" tooltip="Manufacturer"/>
+    <hyperlink ref="J47" r:id="rId122" tooltip="Supplier"/>
+    <hyperlink ref="G48" r:id="rId123" tooltip="Component"/>
+    <hyperlink ref="H48" r:id="rId124" tooltip="Manufacturer"/>
+    <hyperlink ref="J48" r:id="rId125" tooltip="Supplier"/>
+    <hyperlink ref="J12" r:id="rId126" tooltip="Supplier" display="MBRM140T3GOSCT-ND"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId129"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId127"/>
 </worksheet>
 </file>